--- a/build/output_place/12월_키워드보고서_spogymmilon_naver.xlsx
+++ b/build/output_place/12월_키워드보고서_spogymmilon_naver.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="224">
   <si>
     <t>검색어 평균/합계 비교</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -800,49 +800,19 @@
     <t>광고그룹</t>
   </si>
   <si>
-    <t>을지로스피닝</t>
+    <t>2024.10.28.</t>
   </si>
   <si>
     <t>PC</t>
   </si>
   <si>
-    <t>을지로요가</t>
-  </si>
-  <si>
-    <t>을지로입구헬스</t>
-  </si>
-  <si>
-    <t>을지로피티</t>
-  </si>
-  <si>
-    <t>을지로필라테스</t>
-  </si>
-  <si>
-    <t>을지로헬스</t>
-  </si>
-  <si>
-    <t>을지로헬스장</t>
-  </si>
-  <si>
-    <t>을지로휘트니스</t>
-  </si>
-  <si>
-    <t>중구헬스</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>모바일</t>
   </si>
   <si>
-    <t>을지로3가헬스</t>
+    <t>2024.11.01.</t>
   </si>
   <si>
-    <t>을지로PT</t>
-  </si>
-  <si>
-    <t>을지로골프</t>
+    <t>2024.12.01.</t>
   </si>
 </sst>
 </file>
@@ -861,7 +831,7 @@
     <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1123,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1454,7 +1429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,6 +1899,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
@@ -11122,7 +11098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772C4C9-E365-4117-8B21-32D95E2AA599}">
-  <dimension ref="A1:AW98"/>
+  <dimension ref="A1:AW154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -14660,6 +14636,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO29" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AP29" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ29" t="n" s="147">
+        <v>86.0</v>
+      </c>
+      <c r="AR29" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS29" t="n" s="147">
+        <v>5.82</v>
+      </c>
+      <c r="AT29" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU29" t="n" s="147">
+        <v>275.0</v>
+      </c>
+      <c r="AV29" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW29" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="103" t="s">
@@ -14808,6 +14811,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO30" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AP30" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ30" t="n" s="147">
+        <v>422.0</v>
+      </c>
+      <c r="AR30" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS30" t="n" s="147">
+        <v>1.66</v>
+      </c>
+      <c r="AT30" t="n" s="147">
+        <v>195.0</v>
+      </c>
+      <c r="AU30" t="n" s="147">
+        <v>1365.65</v>
+      </c>
+      <c r="AV30" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW30" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
@@ -14956,6 +14986,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO31" t="s" s="147">
+        <v>146</v>
+      </c>
+      <c r="AP31" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ31" t="n" s="147">
+        <v>74.0</v>
+      </c>
+      <c r="AR31" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS31" t="n" s="147">
+        <v>6.76</v>
+      </c>
+      <c r="AT31" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU31" t="n" s="147">
+        <v>275.0</v>
+      </c>
+      <c r="AV31" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW31" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
@@ -15104,6 +15161,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO32" t="s" s="147">
+        <v>146</v>
+      </c>
+      <c r="AP32" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ32" t="n" s="147">
+        <v>403.0</v>
+      </c>
+      <c r="AR32" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS32" t="n" s="147">
+        <v>1.99</v>
+      </c>
+      <c r="AT32" t="n" s="147">
+        <v>1371.0</v>
+      </c>
+      <c r="AU32" t="n" s="147">
+        <v>10967.55</v>
+      </c>
+      <c r="AV32" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW32" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="103" t="s">
@@ -15252,6 +15336,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO33" t="s" s="147">
+        <v>147</v>
+      </c>
+      <c r="AP33" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ33" t="n" s="147">
+        <v>66.0</v>
+      </c>
+      <c r="AR33" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS33" t="n" s="147">
+        <v>7.58</v>
+      </c>
+      <c r="AT33" t="n" s="147">
+        <v>1945.0</v>
+      </c>
+      <c r="AU33" t="n" s="147">
+        <v>9724.0</v>
+      </c>
+      <c r="AV33" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW33" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
@@ -15400,6 +15511,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO34" t="s" s="147">
+        <v>147</v>
+      </c>
+      <c r="AP34" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ34" t="n" s="147">
+        <v>361.0</v>
+      </c>
+      <c r="AR34" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS34" t="n" s="147">
+        <v>0.28</v>
+      </c>
+      <c r="AT34" t="n" s="147">
+        <v>140.0</v>
+      </c>
+      <c r="AU34" t="n" s="147">
+        <v>140.25</v>
+      </c>
+      <c r="AV34" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW34" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="103" t="s">
@@ -15548,6 +15686,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO35" t="s" s="147">
+        <v>148</v>
+      </c>
+      <c r="AP35" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ35" t="n" s="147">
+        <v>50.0</v>
+      </c>
+      <c r="AR35" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS35" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AT35" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU35" t="n" s="147">
+        <v>220.55</v>
+      </c>
+      <c r="AV35" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW35" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
@@ -15696,6 +15861,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO36" t="s" s="147">
+        <v>148</v>
+      </c>
+      <c r="AP36" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ36" t="n" s="147">
+        <v>357.0</v>
+      </c>
+      <c r="AR36" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS36" t="n" s="147">
+        <v>1.13</v>
+      </c>
+      <c r="AT36" t="n" s="147">
+        <v>2076.0</v>
+      </c>
+      <c r="AU36" t="n" s="147">
+        <v>8302.25</v>
+      </c>
+      <c r="AV36" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW36" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="103" t="s">
@@ -15844,6 +16036,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO37" t="s" s="147">
+        <v>222</v>
+      </c>
+      <c r="AP37" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ37" t="n" s="147">
+        <v>49.0</v>
+      </c>
+      <c r="AR37" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS37" t="n" s="147">
+        <v>4.09</v>
+      </c>
+      <c r="AT37" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU37" t="n" s="147">
+        <v>110.55</v>
+      </c>
+      <c r="AV37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW37" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="103" t="s">
@@ -15992,6 +16211,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO38" t="s" s="147">
+        <v>222</v>
+      </c>
+      <c r="AP38" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ38" t="n" s="147">
+        <v>366.0</v>
+      </c>
+      <c r="AR38" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS38" t="n" s="147">
+        <v>0.82</v>
+      </c>
+      <c r="AT38" t="n" s="147">
+        <v>59.0</v>
+      </c>
+      <c r="AU38" t="n" s="147">
+        <v>177.1</v>
+      </c>
+      <c r="AV38" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW38" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="103" t="s">
@@ -16140,6 +16386,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO39" t="s" s="147">
+        <v>150</v>
+      </c>
+      <c r="AP39" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ39" t="n" s="147">
+        <v>27.0</v>
+      </c>
+      <c r="AR39" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS39" t="n" s="147">
+        <v>7.41</v>
+      </c>
+      <c r="AT39" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU39" t="n" s="147">
+        <v>110.55</v>
+      </c>
+      <c r="AV39" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW39" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="103" t="s">
@@ -16288,6 +16561,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO40" t="s" s="147">
+        <v>150</v>
+      </c>
+      <c r="AP40" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ40" t="n" s="147">
+        <v>333.0</v>
+      </c>
+      <c r="AR40" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS40" t="n" s="147">
+        <v>1.81</v>
+      </c>
+      <c r="AT40" t="n" s="147">
+        <v>2845.0</v>
+      </c>
+      <c r="AU40" t="n" s="147">
+        <v>17072.0</v>
+      </c>
+      <c r="AV40" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW40" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="103" t="s">
@@ -16436,6 +16736,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO41" t="s" s="147">
+        <v>151</v>
+      </c>
+      <c r="AP41" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ41" t="n" s="147">
+        <v>15.0</v>
+      </c>
+      <c r="AR41" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS41" t="n" s="147">
+        <v>13.34</v>
+      </c>
+      <c r="AT41" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU41" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV41" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW41" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
@@ -16584,6 +16911,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO42" t="s" s="147">
+        <v>151</v>
+      </c>
+      <c r="AP42" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ42" t="n" s="147">
+        <v>289.0</v>
+      </c>
+      <c r="AR42" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS42" t="n" s="147">
+        <v>2.77</v>
+      </c>
+      <c r="AT42" t="n" s="147">
+        <v>1588.0</v>
+      </c>
+      <c r="AU42" t="n" s="147">
+        <v>12700.6</v>
+      </c>
+      <c r="AV42" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW42" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="103" t="s">
@@ -16732,6 +17086,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO43" t="s" s="147">
+        <v>152</v>
+      </c>
+      <c r="AP43" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ43" t="n" s="147">
+        <v>95.0</v>
+      </c>
+      <c r="AR43" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS43" t="n" s="147">
+        <v>5.27</v>
+      </c>
+      <c r="AT43" t="n" s="147">
+        <v>249.0</v>
+      </c>
+      <c r="AU43" t="n" s="147">
+        <v>1243.0</v>
+      </c>
+      <c r="AV43" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW43" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="103" t="s">
@@ -16880,6 +17261,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO44" t="s" s="147">
+        <v>152</v>
+      </c>
+      <c r="AP44" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ44" t="n" s="147">
+        <v>390.0</v>
+      </c>
+      <c r="AR44" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS44" t="n" s="147">
+        <v>1.54</v>
+      </c>
+      <c r="AT44" t="n" s="147">
+        <v>67.0</v>
+      </c>
+      <c r="AU44" t="n" s="147">
+        <v>404.25</v>
+      </c>
+      <c r="AV44" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW44" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="103" t="s">
@@ -17028,6 +17436,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO45" t="s" s="147">
+        <v>153</v>
+      </c>
+      <c r="AP45" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ45" t="n" s="147">
+        <v>80.0</v>
+      </c>
+      <c r="AR45" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS45" t="n" s="147">
+        <v>2.5</v>
+      </c>
+      <c r="AT45" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU45" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV45" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW45" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="103" t="s">
@@ -17176,6 +17611,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO46" t="s" s="147">
+        <v>153</v>
+      </c>
+      <c r="AP46" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ46" t="n" s="147">
+        <v>347.0</v>
+      </c>
+      <c r="AR46" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS46" t="n" s="147">
+        <v>0.58</v>
+      </c>
+      <c r="AT46" t="n" s="147">
+        <v>99.0</v>
+      </c>
+      <c r="AU46" t="n" s="147">
+        <v>197.45</v>
+      </c>
+      <c r="AV46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW46" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="103" t="s">
@@ -17324,6 +17786,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO47" t="s" s="147">
+        <v>154</v>
+      </c>
+      <c r="AP47" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ47" t="n" s="147">
+        <v>91.0</v>
+      </c>
+      <c r="AR47" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS47" t="n" s="147">
+        <v>5.5</v>
+      </c>
+      <c r="AT47" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU47" t="n" s="147">
+        <v>275.0</v>
+      </c>
+      <c r="AV47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW47" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="103" t="s">
@@ -17472,6 +17961,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO48" t="s" s="147">
+        <v>154</v>
+      </c>
+      <c r="AP48" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ48" t="n" s="147">
+        <v>373.0</v>
+      </c>
+      <c r="AR48" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS48" t="n" s="147">
+        <v>1.08</v>
+      </c>
+      <c r="AT48" t="n" s="147">
+        <v>3091.0</v>
+      </c>
+      <c r="AU48" t="n" s="147">
+        <v>12365.1</v>
+      </c>
+      <c r="AV48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW48" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
@@ -17620,6 +18136,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO49" t="s" s="147">
+        <v>155</v>
+      </c>
+      <c r="AP49" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ49" t="n" s="147">
+        <v>63.0</v>
+      </c>
+      <c r="AR49" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS49" t="n" s="147">
+        <v>3.18</v>
+      </c>
+      <c r="AT49" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU49" t="n" s="147">
+        <v>110.55</v>
+      </c>
+      <c r="AV49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="103" t="s">
@@ -17768,6 +18311,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO50" t="s" s="147">
+        <v>155</v>
+      </c>
+      <c r="AP50" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ50" t="n" s="147">
+        <v>313.0</v>
+      </c>
+      <c r="AR50" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS50" t="n" s="147">
+        <v>1.28</v>
+      </c>
+      <c r="AT50" t="n" s="147">
+        <v>2494.0</v>
+      </c>
+      <c r="AU50" t="n" s="147">
+        <v>9974.25</v>
+      </c>
+      <c r="AV50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW50" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="103" t="s">
@@ -17916,6 +18486,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO51" t="s" s="147">
+        <v>156</v>
+      </c>
+      <c r="AP51" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ51" t="n" s="147">
+        <v>60.0</v>
+      </c>
+      <c r="AR51" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS51" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AT51" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU51" t="n" s="147">
+        <v>165.0</v>
+      </c>
+      <c r="AV51" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW51" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="103" t="s">
@@ -18064,6 +18661,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO52" t="s" s="147">
+        <v>156</v>
+      </c>
+      <c r="AP52" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ52" t="n" s="147">
+        <v>312.0</v>
+      </c>
+      <c r="AR52" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS52" t="n" s="147">
+        <v>0.97</v>
+      </c>
+      <c r="AT52" t="n" s="147">
+        <v>74.0</v>
+      </c>
+      <c r="AU52" t="n" s="147">
+        <v>222.2</v>
+      </c>
+      <c r="AV52" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="103" t="s">
@@ -18212,6 +18836,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO53" t="s" s="147">
+        <v>157</v>
+      </c>
+      <c r="AP53" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ53" t="n" s="147">
+        <v>25.0</v>
+      </c>
+      <c r="AR53" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS53" t="n" s="147">
+        <v>24.0</v>
+      </c>
+      <c r="AT53" t="n" s="147">
+        <v>3467.0</v>
+      </c>
+      <c r="AU53" t="n" s="147">
+        <v>20801.0</v>
+      </c>
+      <c r="AV53" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="103" t="s">
@@ -18360,6 +19011,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO54" t="s" s="147">
+        <v>157</v>
+      </c>
+      <c r="AP54" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ54" t="n" s="147">
+        <v>311.0</v>
+      </c>
+      <c r="AR54" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS54" t="n" s="147">
+        <v>1.29</v>
+      </c>
+      <c r="AT54" t="n" s="147">
+        <v>61.0</v>
+      </c>
+      <c r="AU54" t="n" s="147">
+        <v>244.75</v>
+      </c>
+      <c r="AV54" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="103" t="s">
@@ -18508,6 +19186,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO55" t="s" s="147">
+        <v>158</v>
+      </c>
+      <c r="AP55" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ55" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AR55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="103" t="s">
@@ -18656,6 +19361,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO56" t="s" s="147">
+        <v>158</v>
+      </c>
+      <c r="AP56" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ56" t="n" s="147">
+        <v>255.0</v>
+      </c>
+      <c r="AR56" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS56" t="n" s="147">
+        <v>2.36</v>
+      </c>
+      <c r="AT56" t="n" s="147">
+        <v>815.0</v>
+      </c>
+      <c r="AU56" t="n" s="147">
+        <v>4888.95</v>
+      </c>
+      <c r="AV56" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW56" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="103" t="s">
@@ -18804,6 +19536,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO57" t="s" s="147">
+        <v>159</v>
+      </c>
+      <c r="AP57" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ57" t="n" s="147">
+        <v>91.0</v>
+      </c>
+      <c r="AR57" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS57" t="n" s="147">
+        <v>3.3</v>
+      </c>
+      <c r="AT57" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU57" t="n" s="147">
+        <v>165.0</v>
+      </c>
+      <c r="AV57" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="103" t="s">
@@ -18952,6 +19711,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO58" t="s" s="147">
+        <v>159</v>
+      </c>
+      <c r="AP58" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ58" t="n" s="147">
+        <v>299.0</v>
+      </c>
+      <c r="AR58" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AS58" t="n" s="147">
+        <v>3.35</v>
+      </c>
+      <c r="AT58" t="n" s="147">
+        <v>930.0</v>
+      </c>
+      <c r="AU58" t="n" s="147">
+        <v>9303.8</v>
+      </c>
+      <c r="AV58" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -19100,6 +19886,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO59" t="s" s="147">
+        <v>160</v>
+      </c>
+      <c r="AP59" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ59" t="n" s="147">
+        <v>88.0</v>
+      </c>
+      <c r="AR59" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS59" t="n" s="147">
+        <v>3.41</v>
+      </c>
+      <c r="AT59" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU59" t="n" s="147">
+        <v>165.0</v>
+      </c>
+      <c r="AV59" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="103" t="s">
@@ -19248,6 +20061,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO60" t="s" s="147">
+        <v>160</v>
+      </c>
+      <c r="AP60" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ60" t="n" s="147">
+        <v>321.0</v>
+      </c>
+      <c r="AR60" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS60" t="n" s="147">
+        <v>1.87</v>
+      </c>
+      <c r="AT60" t="n" s="147">
+        <v>65.0</v>
+      </c>
+      <c r="AU60" t="n" s="147">
+        <v>391.6</v>
+      </c>
+      <c r="AV60" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="103" t="s">
@@ -19396,6 +20236,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO61" t="s" s="147">
+        <v>161</v>
+      </c>
+      <c r="AP61" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ61" t="n" s="147">
+        <v>38.0</v>
+      </c>
+      <c r="AR61" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS61" t="n" s="147">
+        <v>10.53</v>
+      </c>
+      <c r="AT61" t="n" s="147">
+        <v>4461.0</v>
+      </c>
+      <c r="AU61" t="n" s="147">
+        <v>17842.0</v>
+      </c>
+      <c r="AV61" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="103" t="s">
@@ -19544,6 +20411,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO62" t="s" s="147">
+        <v>161</v>
+      </c>
+      <c r="AP62" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ62" t="n" s="147">
+        <v>278.0</v>
+      </c>
+      <c r="AR62" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS62" t="n" s="147">
+        <v>1.8</v>
+      </c>
+      <c r="AT62" t="n" s="147">
+        <v>57.0</v>
+      </c>
+      <c r="AU62" t="n" s="147">
+        <v>286.55</v>
+      </c>
+      <c r="AV62" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="103" t="s">
@@ -19692,6 +20586,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO63" t="s" s="147">
+        <v>162</v>
+      </c>
+      <c r="AP63" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ63" t="n" s="147">
+        <v>61.0</v>
+      </c>
+      <c r="AR63" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS63" t="n" s="147">
+        <v>4.92</v>
+      </c>
+      <c r="AT63" t="n" s="147">
+        <v>3230.0</v>
+      </c>
+      <c r="AU63" t="n" s="147">
+        <v>9691.0</v>
+      </c>
+      <c r="AV63" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="103" t="s">
@@ -19840,6 +20761,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO64" t="s" s="147">
+        <v>162</v>
+      </c>
+      <c r="AP64" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ64" t="n" s="147">
+        <v>299.0</v>
+      </c>
+      <c r="AR64" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS64" t="n" s="147">
+        <v>1.34</v>
+      </c>
+      <c r="AT64" t="n" s="147">
+        <v>73.0</v>
+      </c>
+      <c r="AU64" t="n" s="147">
+        <v>291.5</v>
+      </c>
+      <c r="AV64" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="103" t="s">
@@ -19988,6 +20936,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO65" t="s" s="147">
+        <v>163</v>
+      </c>
+      <c r="AP65" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ65" t="n" s="147">
+        <v>38.0</v>
+      </c>
+      <c r="AR65" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS65" t="n" s="147">
+        <v>7.9</v>
+      </c>
+      <c r="AT65" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU65" t="n" s="147">
+        <v>165.0</v>
+      </c>
+      <c r="AV65" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="103" t="s">
@@ -20136,6 +21111,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO66" t="s" s="147">
+        <v>163</v>
+      </c>
+      <c r="AP66" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ66" t="n" s="147">
+        <v>338.0</v>
+      </c>
+      <c r="AR66" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS66" t="n" s="147">
+        <v>1.19</v>
+      </c>
+      <c r="AT66" t="n" s="147">
+        <v>2206.0</v>
+      </c>
+      <c r="AU66" t="n" s="147">
+        <v>8822.55</v>
+      </c>
+      <c r="AV66" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="103" t="s">
@@ -20284,6 +21286,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO67" t="s" s="147">
+        <v>164</v>
+      </c>
+      <c r="AP67" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ67" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AR67" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS67" t="n" s="147">
+        <v>33.34</v>
+      </c>
+      <c r="AT67" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU67" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV67" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="103" t="s">
@@ -20432,6 +21461,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO68" t="s" s="147">
+        <v>164</v>
+      </c>
+      <c r="AP68" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ68" t="n" s="147">
+        <v>305.0</v>
+      </c>
+      <c r="AR68" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS68" t="n" s="147">
+        <v>1.64</v>
+      </c>
+      <c r="AT68" t="n" s="147">
+        <v>2841.0</v>
+      </c>
+      <c r="AU68" t="n" s="147">
+        <v>14203.75</v>
+      </c>
+      <c r="AV68" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="103" t="s">
@@ -20580,6 +21636,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO69" t="s" s="147">
+        <v>165</v>
+      </c>
+      <c r="AP69" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ69" t="n" s="147">
+        <v>19.0</v>
+      </c>
+      <c r="AR69" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS69" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT69" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU69" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV69" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="103" t="s">
@@ -20728,6 +21811,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO70" t="s" s="147">
+        <v>165</v>
+      </c>
+      <c r="AP70" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ70" t="n" s="147">
+        <v>235.0</v>
+      </c>
+      <c r="AR70" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS70" t="n" s="147">
+        <v>1.71</v>
+      </c>
+      <c r="AT70" t="n" s="147">
+        <v>6253.0</v>
+      </c>
+      <c r="AU70" t="n" s="147">
+        <v>25012.35</v>
+      </c>
+      <c r="AV70" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="103" t="s">
@@ -20876,6 +21986,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO71" t="s" s="147">
+        <v>166</v>
+      </c>
+      <c r="AP71" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ71" t="n" s="147">
+        <v>94.0</v>
+      </c>
+      <c r="AR71" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS71" t="n" s="147">
+        <v>1.07</v>
+      </c>
+      <c r="AT71" t="n" s="147">
+        <v>9196.0</v>
+      </c>
+      <c r="AU71" t="n" s="147">
+        <v>9196.0</v>
+      </c>
+      <c r="AV71" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="103" t="s">
@@ -21024,6 +22161,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO72" t="s" s="147">
+        <v>166</v>
+      </c>
+      <c r="AP72" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ72" t="n" s="147">
+        <v>333.0</v>
+      </c>
+      <c r="AR72" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS72" t="n" s="147">
+        <v>1.51</v>
+      </c>
+      <c r="AT72" t="n" s="147">
+        <v>4978.0</v>
+      </c>
+      <c r="AU72" t="n" s="147">
+        <v>24888.6</v>
+      </c>
+      <c r="AV72" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="103" t="s">
@@ -21172,6 +22336,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO73" t="s" s="147">
+        <v>167</v>
+      </c>
+      <c r="AP73" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ73" t="n" s="147">
+        <v>64.0</v>
+      </c>
+      <c r="AR73" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS73" t="n" s="147">
+        <v>4.69</v>
+      </c>
+      <c r="AT73" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU73" t="n" s="147">
+        <v>165.55</v>
+      </c>
+      <c r="AV73" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="103" t="s">
@@ -21320,6 +22511,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO74" t="s" s="147">
+        <v>167</v>
+      </c>
+      <c r="AP74" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ74" t="n" s="147">
+        <v>332.0</v>
+      </c>
+      <c r="AR74" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS74" t="n" s="147">
+        <v>2.41</v>
+      </c>
+      <c r="AT74" t="n" s="147">
+        <v>1713.0</v>
+      </c>
+      <c r="AU74" t="n" s="147">
+        <v>13704.9</v>
+      </c>
+      <c r="AV74" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW74" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="103" t="s">
@@ -21468,6 +22686,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO75" t="s" s="147">
+        <v>168</v>
+      </c>
+      <c r="AP75" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ75" t="n" s="147">
+        <v>77.0</v>
+      </c>
+      <c r="AR75" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS75" t="n" s="147">
+        <v>5.2</v>
+      </c>
+      <c r="AT75" t="n" s="147">
+        <v>2500.0</v>
+      </c>
+      <c r="AU75" t="n" s="147">
+        <v>9999.0</v>
+      </c>
+      <c r="AV75" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW75" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="103" t="s">
@@ -21616,6 +22861,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO76" t="s" s="147">
+        <v>168</v>
+      </c>
+      <c r="AP76" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ76" t="n" s="147">
+        <v>315.0</v>
+      </c>
+      <c r="AR76" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS76" t="n" s="147">
+        <v>1.59</v>
+      </c>
+      <c r="AT76" t="n" s="147">
+        <v>4055.0</v>
+      </c>
+      <c r="AU76" t="n" s="147">
+        <v>20273.0</v>
+      </c>
+      <c r="AV76" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="103" t="s">
@@ -21764,6 +23036,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO77" t="s" s="147">
+        <v>169</v>
+      </c>
+      <c r="AP77" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ77" t="n" s="147">
+        <v>103.0</v>
+      </c>
+      <c r="AR77" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS77" t="n" s="147">
+        <v>6.8</v>
+      </c>
+      <c r="AT77" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU77" t="n" s="147">
+        <v>385.0</v>
+      </c>
+      <c r="AV77" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW77" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="103" t="s">
@@ -21912,6 +23211,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO78" t="s" s="147">
+        <v>169</v>
+      </c>
+      <c r="AP78" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ78" t="n" s="147">
+        <v>312.0</v>
+      </c>
+      <c r="AR78" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS78" t="n" s="147">
+        <v>1.29</v>
+      </c>
+      <c r="AT78" t="n" s="147">
+        <v>69.0</v>
+      </c>
+      <c r="AU78" t="n" s="147">
+        <v>274.45</v>
+      </c>
+      <c r="AV78" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW78" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="103" t="s">
@@ -22060,6 +23386,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO79" t="s" s="147">
+        <v>170</v>
+      </c>
+      <c r="AP79" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ79" t="n" s="147">
+        <v>49.0</v>
+      </c>
+      <c r="AR79" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS79" t="n" s="147">
+        <v>2.05</v>
+      </c>
+      <c r="AT79" t="n" s="147">
+        <v>56.0</v>
+      </c>
+      <c r="AU79" t="n" s="147">
+        <v>55.55</v>
+      </c>
+      <c r="AV79" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW79" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="103" t="s">
@@ -22208,6 +23561,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO80" t="s" s="147">
+        <v>170</v>
+      </c>
+      <c r="AP80" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ80" t="n" s="147">
+        <v>315.0</v>
+      </c>
+      <c r="AR80" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS80" t="n" s="147">
+        <v>2.23</v>
+      </c>
+      <c r="AT80" t="n" s="147">
+        <v>1275.0</v>
+      </c>
+      <c r="AU80" t="n" s="147">
+        <v>8927.6</v>
+      </c>
+      <c r="AV80" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW80" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="103" t="s">
@@ -22356,6 +23736,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO81" t="s" s="147">
+        <v>171</v>
+      </c>
+      <c r="AP81" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ81" t="n" s="147">
+        <v>23.0</v>
+      </c>
+      <c r="AR81" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS81" t="n" s="147">
+        <v>8.7</v>
+      </c>
+      <c r="AT81" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU81" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV81" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW81" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="103" t="s">
@@ -22504,6 +23911,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO82" t="s" s="147">
+        <v>171</v>
+      </c>
+      <c r="AP82" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ82" t="n" s="147">
+        <v>282.0</v>
+      </c>
+      <c r="AR82" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS82" t="n" s="147">
+        <v>3.2</v>
+      </c>
+      <c r="AT82" t="n" s="147">
+        <v>2848.0</v>
+      </c>
+      <c r="AU82" t="n" s="147">
+        <v>25634.4</v>
+      </c>
+      <c r="AV82" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW82" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="103" t="s">
@@ -22652,6 +24086,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO83" t="s" s="147">
+        <v>172</v>
+      </c>
+      <c r="AP83" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ83" t="n" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="AR83" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS83" t="n" s="147">
+        <v>7.15</v>
+      </c>
+      <c r="AT83" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU83" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AV83" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW83" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="103" t="s">
@@ -22800,6 +24261,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO84" t="s" s="147">
+        <v>172</v>
+      </c>
+      <c r="AP84" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ84" t="n" s="147">
+        <v>199.0</v>
+      </c>
+      <c r="AR84" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS84" t="n" s="147">
+        <v>2.02</v>
+      </c>
+      <c r="AT84" t="n" s="147">
+        <v>5504.0</v>
+      </c>
+      <c r="AU84" t="n" s="147">
+        <v>22017.05</v>
+      </c>
+      <c r="AV84" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW84" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="103" t="s">
@@ -22948,6 +24436,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO85" t="s" s="147">
+        <v>173</v>
+      </c>
+      <c r="AP85" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ85" t="n" s="147">
+        <v>20.0</v>
+      </c>
+      <c r="AR85" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS85" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AT85" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU85" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AV85" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW85" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="103" t="s">
@@ -23096,6 +24611,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO86" t="s" s="147">
+        <v>173</v>
+      </c>
+      <c r="AP86" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ86" t="n" s="147">
+        <v>145.0</v>
+      </c>
+      <c r="AR86" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS86" t="n" s="147">
+        <v>2.07</v>
+      </c>
+      <c r="AT86" t="n" s="147">
+        <v>2853.0</v>
+      </c>
+      <c r="AU86" t="n" s="147">
+        <v>8559.1</v>
+      </c>
+      <c r="AV86" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW86" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="103" t="s">
@@ -23244,6 +24786,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO87" t="s" s="147">
+        <v>174</v>
+      </c>
+      <c r="AP87" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ87" t="n" s="147">
+        <v>69.0</v>
+      </c>
+      <c r="AR87" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS87" t="n" s="147">
+        <v>5.8</v>
+      </c>
+      <c r="AT87" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU87" t="n" s="147">
+        <v>220.55</v>
+      </c>
+      <c r="AV87" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW87" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="103" t="s">
@@ -23392,6 +24961,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO88" t="s" s="147">
+        <v>174</v>
+      </c>
+      <c r="AP88" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ88" t="n" s="147">
+        <v>345.0</v>
+      </c>
+      <c r="AR88" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS88" t="n" s="147">
+        <v>2.03</v>
+      </c>
+      <c r="AT88" t="n" s="147">
+        <v>1823.0</v>
+      </c>
+      <c r="AU88" t="n" s="147">
+        <v>12761.65</v>
+      </c>
+      <c r="AV88" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW88" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="103" t="s">
@@ -23540,6 +25136,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO89" t="s" s="147">
+        <v>175</v>
+      </c>
+      <c r="AP89" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ89" t="n" s="147">
+        <v>99.0</v>
+      </c>
+      <c r="AR89" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS89" t="n" s="147">
+        <v>4.05</v>
+      </c>
+      <c r="AT89" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU89" t="n" s="147">
+        <v>220.55</v>
+      </c>
+      <c r="AV89" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW89" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="103" t="s">
@@ -23688,6 +25311,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO90" t="s" s="147">
+        <v>175</v>
+      </c>
+      <c r="AP90" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ90" t="n" s="147">
+        <v>297.0</v>
+      </c>
+      <c r="AR90" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS90" t="n" s="147">
+        <v>1.35</v>
+      </c>
+      <c r="AT90" t="n" s="147">
+        <v>69.0</v>
+      </c>
+      <c r="AU90" t="n" s="147">
+        <v>274.45</v>
+      </c>
+      <c r="AV90" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW90" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="103" t="s">
@@ -23836,6 +25486,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO91" t="s" s="147">
+        <v>176</v>
+      </c>
+      <c r="AP91" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ91" t="n" s="147">
+        <v>76.0</v>
+      </c>
+      <c r="AR91" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS91" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT91" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU91" t="n" s="147">
+        <v>0.55</v>
+      </c>
+      <c r="AV91" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW91" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="103" t="s">
@@ -23984,6 +25661,33 @@
         <f t="shared" ref="AM92:AM98" si="126">IF(ISERROR(AJ92/AH92),,AJ92/AH92)</f>
         <v>0</v>
       </c>
+      <c r="AO92" t="s" s="147">
+        <v>176</v>
+      </c>
+      <c r="AP92" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ92" t="n" s="147">
+        <v>312.0</v>
+      </c>
+      <c r="AR92" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AS92" t="n" s="147">
+        <v>3.21</v>
+      </c>
+      <c r="AT92" t="n" s="147">
+        <v>2848.0</v>
+      </c>
+      <c r="AU92" t="n" s="147">
+        <v>28480.65</v>
+      </c>
+      <c r="AV92" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW92" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="103" t="s">
@@ -24132,6 +25836,33 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="AO93" t="s" s="147">
+        <v>177</v>
+      </c>
+      <c r="AP93" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ93" t="n" s="147">
+        <v>48.0</v>
+      </c>
+      <c r="AR93" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS93" t="n" s="147">
+        <v>4.17</v>
+      </c>
+      <c r="AT93" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU93" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV93" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW93" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="103" t="s">
@@ -24280,6 +26011,33 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="AO94" t="s" s="147">
+        <v>177</v>
+      </c>
+      <c r="AP94" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ94" t="n" s="147">
+        <v>287.0</v>
+      </c>
+      <c r="AR94" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS94" t="n" s="147">
+        <v>1.4</v>
+      </c>
+      <c r="AT94" t="n" s="147">
+        <v>2052.0</v>
+      </c>
+      <c r="AU94" t="n" s="147">
+        <v>8208.75</v>
+      </c>
+      <c r="AV94" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW94" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="103" t="s">
@@ -24428,6 +26186,33 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="AO95" t="s" s="147">
+        <v>178</v>
+      </c>
+      <c r="AP95" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ95" t="n" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="AR95" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS95" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT95" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU95" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV95" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW95" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="103" t="s">
@@ -24576,6 +26361,33 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="AO96" t="s" s="147">
+        <v>178</v>
+      </c>
+      <c r="AP96" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ96" t="n" s="147">
+        <v>293.0</v>
+      </c>
+      <c r="AR96" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS96" t="n" s="147">
+        <v>2.74</v>
+      </c>
+      <c r="AT96" t="n" s="147">
+        <v>1126.0</v>
+      </c>
+      <c r="AU96" t="n" s="147">
+        <v>9009.55</v>
+      </c>
+      <c r="AV96" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW96" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="103" t="s">
@@ -24724,6 +26536,33 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
+      <c r="AO97" t="s" s="147">
+        <v>223</v>
+      </c>
+      <c r="AP97" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ97" t="n" s="147">
+        <v>26.0</v>
+      </c>
+      <c r="AR97" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS97" t="n" s="147">
+        <v>3.85</v>
+      </c>
+      <c r="AT97" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU97" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AV97" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW97" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="103" t="s">
@@ -24871,6 +26710,1657 @@
       <c r="AM98" s="82">
         <f t="shared" si="126"/>
         <v>0</v>
+      </c>
+      <c r="AO98" t="s" s="147">
+        <v>223</v>
+      </c>
+      <c r="AP98" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ98" t="n" s="147">
+        <v>289.0</v>
+      </c>
+      <c r="AR98" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS98" t="n" s="147">
+        <v>2.08</v>
+      </c>
+      <c r="AT98" t="n" s="147">
+        <v>59.0</v>
+      </c>
+      <c r="AU98" t="n" s="147">
+        <v>352.55</v>
+      </c>
+      <c r="AV98" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW98" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AO99" t="s" s="147">
+        <v>180</v>
+      </c>
+      <c r="AP99" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ99" t="n" s="147">
+        <v>139.0</v>
+      </c>
+      <c r="AR99" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AS99" t="n" s="147">
+        <v>7.2</v>
+      </c>
+      <c r="AT99" t="n" s="147">
+        <v>957.0</v>
+      </c>
+      <c r="AU99" t="n" s="147">
+        <v>9570.0</v>
+      </c>
+      <c r="AV99" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW99" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="AO100" t="s" s="147">
+        <v>180</v>
+      </c>
+      <c r="AP100" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ100" t="n" s="147">
+        <v>299.0</v>
+      </c>
+      <c r="AR100" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AS100" t="n" s="147">
+        <v>3.35</v>
+      </c>
+      <c r="AT100" t="n" s="147">
+        <v>1364.0</v>
+      </c>
+      <c r="AU100" t="n" s="147">
+        <v>13642.75</v>
+      </c>
+      <c r="AV100" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW100" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="AO101" t="s" s="147">
+        <v>181</v>
+      </c>
+      <c r="AP101" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ101" t="n" s="147">
+        <v>86.0</v>
+      </c>
+      <c r="AR101" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS101" t="n" s="147">
+        <v>5.82</v>
+      </c>
+      <c r="AT101" t="n" s="147">
+        <v>1789.0</v>
+      </c>
+      <c r="AU101" t="n" s="147">
+        <v>8943.55</v>
+      </c>
+      <c r="AV101" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW101" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="AO102" t="s" s="147">
+        <v>181</v>
+      </c>
+      <c r="AP102" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ102" t="n" s="147">
+        <v>378.0</v>
+      </c>
+      <c r="AR102" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS102" t="n" s="147">
+        <v>2.12</v>
+      </c>
+      <c r="AT102" t="n" s="147">
+        <v>182.0</v>
+      </c>
+      <c r="AU102" t="n" s="147">
+        <v>1455.85</v>
+      </c>
+      <c r="AV102" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW102" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="AO103" t="s" s="147">
+        <v>182</v>
+      </c>
+      <c r="AP103" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ103" t="n" s="147">
+        <v>118.0</v>
+      </c>
+      <c r="AR103" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS103" t="n" s="147">
+        <v>3.39</v>
+      </c>
+      <c r="AT103" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU103" t="n" s="147">
+        <v>221.1</v>
+      </c>
+      <c r="AV103" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW103" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="AO104" t="s" s="147">
+        <v>182</v>
+      </c>
+      <c r="AP104" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ104" t="n" s="147">
+        <v>554.0</v>
+      </c>
+      <c r="AR104" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS104" t="n" s="147">
+        <v>0.55</v>
+      </c>
+      <c r="AT104" t="n" s="147">
+        <v>126.0</v>
+      </c>
+      <c r="AU104" t="n" s="147">
+        <v>377.85</v>
+      </c>
+      <c r="AV104" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW104" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="AO105" t="s" s="147">
+        <v>183</v>
+      </c>
+      <c r="AP105" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ105" t="n" s="147">
+        <v>87.0</v>
+      </c>
+      <c r="AR105" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS105" t="n" s="147">
+        <v>2.3</v>
+      </c>
+      <c r="AT105" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU105" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV105" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW105" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="AO106" t="s" s="147">
+        <v>183</v>
+      </c>
+      <c r="AP106" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ106" t="n" s="147">
+        <v>452.0</v>
+      </c>
+      <c r="AR106" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS106" t="n" s="147">
+        <v>0.89</v>
+      </c>
+      <c r="AT106" t="n" s="147">
+        <v>6384.0</v>
+      </c>
+      <c r="AU106" t="n" s="147">
+        <v>25535.95</v>
+      </c>
+      <c r="AV106" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW106" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="AO107" t="s" s="147">
+        <v>184</v>
+      </c>
+      <c r="AP107" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ107" t="n" s="147">
+        <v>51.0</v>
+      </c>
+      <c r="AR107" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS107" t="n" s="147">
+        <v>3.93</v>
+      </c>
+      <c r="AT107" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU107" t="n" s="147">
+        <v>110.55</v>
+      </c>
+      <c r="AV107" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW107" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="AO108" t="s" s="147">
+        <v>184</v>
+      </c>
+      <c r="AP108" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ108" t="n" s="147">
+        <v>429.0</v>
+      </c>
+      <c r="AR108" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS108" t="n" s="147">
+        <v>0.24</v>
+      </c>
+      <c r="AT108" t="n" s="147">
+        <v>200.0</v>
+      </c>
+      <c r="AU108" t="n" s="147">
+        <v>199.65</v>
+      </c>
+      <c r="AV108" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW108" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="AO109" t="s" s="147">
+        <v>185</v>
+      </c>
+      <c r="AP109" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ109" t="n" s="147">
+        <v>23.0</v>
+      </c>
+      <c r="AR109" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS109" t="n" s="147">
+        <v>21.74</v>
+      </c>
+      <c r="AT109" t="n" s="147">
+        <v>1960.0</v>
+      </c>
+      <c r="AU109" t="n" s="147">
+        <v>9801.0</v>
+      </c>
+      <c r="AV109" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW109" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AO110" t="s" s="147">
+        <v>185</v>
+      </c>
+      <c r="AP110" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ110" t="n" s="147">
+        <v>326.0</v>
+      </c>
+      <c r="AR110" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS110" t="n" s="147">
+        <v>1.54</v>
+      </c>
+      <c r="AT110" t="n" s="147">
+        <v>2822.0</v>
+      </c>
+      <c r="AU110" t="n" s="147">
+        <v>14108.6</v>
+      </c>
+      <c r="AV110" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW110" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="AO111" t="s" s="147">
+        <v>186</v>
+      </c>
+      <c r="AP111" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ111" t="n" s="147">
+        <v>22.0</v>
+      </c>
+      <c r="AR111" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS111" t="n" s="147">
+        <v>9.1</v>
+      </c>
+      <c r="AT111" t="n" s="147">
+        <v>4323.0</v>
+      </c>
+      <c r="AU111" t="n" s="147">
+        <v>8646.0</v>
+      </c>
+      <c r="AV111" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW111" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="AO112" t="s" s="147">
+        <v>186</v>
+      </c>
+      <c r="AP112" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ112" t="n" s="147">
+        <v>302.0</v>
+      </c>
+      <c r="AR112" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS112" t="n" s="147">
+        <v>2.99</v>
+      </c>
+      <c r="AT112" t="n" s="147">
+        <v>5064.0</v>
+      </c>
+      <c r="AU112" t="n" s="147">
+        <v>45576.85</v>
+      </c>
+      <c r="AV112" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW112" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="AO113" t="s" s="147">
+        <v>187</v>
+      </c>
+      <c r="AP113" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ113" t="n" s="147">
+        <v>92.0</v>
+      </c>
+      <c r="AR113" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS113" t="n" s="147">
+        <v>6.53</v>
+      </c>
+      <c r="AT113" t="n" s="147">
+        <v>216.0</v>
+      </c>
+      <c r="AU113" t="n" s="147">
+        <v>1298.0</v>
+      </c>
+      <c r="AV113" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW113" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="AO114" t="s" s="147">
+        <v>187</v>
+      </c>
+      <c r="AP114" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ114" t="n" s="147">
+        <v>330.0</v>
+      </c>
+      <c r="AR114" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS114" t="n" s="147">
+        <v>2.13</v>
+      </c>
+      <c r="AT114" t="n" s="147">
+        <v>3049.0</v>
+      </c>
+      <c r="AU114" t="n" s="147">
+        <v>21344.95</v>
+      </c>
+      <c r="AV114" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW114" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AO115" t="s" s="147">
+        <v>188</v>
+      </c>
+      <c r="AP115" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ115" t="n" s="147">
+        <v>65.0</v>
+      </c>
+      <c r="AR115" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS115" t="n" s="147">
+        <v>1.54</v>
+      </c>
+      <c r="AT115" t="n" s="147">
+        <v>56.0</v>
+      </c>
+      <c r="AU115" t="n" s="147">
+        <v>56.1</v>
+      </c>
+      <c r="AV115" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW115" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AO116" t="s" s="147">
+        <v>188</v>
+      </c>
+      <c r="AP116" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ116" t="n" s="147">
+        <v>328.0</v>
+      </c>
+      <c r="AR116" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS116" t="n" s="147">
+        <v>0.61</v>
+      </c>
+      <c r="AT116" t="n" s="147">
+        <v>6149.0</v>
+      </c>
+      <c r="AU116" t="n" s="147">
+        <v>12298.0</v>
+      </c>
+      <c r="AV116" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW116" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="AO117" t="s" s="147">
+        <v>189</v>
+      </c>
+      <c r="AP117" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ117" t="n" s="147">
+        <v>67.0</v>
+      </c>
+      <c r="AR117" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS117" t="n" s="147">
+        <v>8.96</v>
+      </c>
+      <c r="AT117" t="n" s="147">
+        <v>880.0</v>
+      </c>
+      <c r="AU117" t="n" s="147">
+        <v>5280.0</v>
+      </c>
+      <c r="AV117" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW117" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="AO118" t="s" s="147">
+        <v>189</v>
+      </c>
+      <c r="AP118" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ118" t="n" s="147">
+        <v>316.0</v>
+      </c>
+      <c r="AR118" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS118" t="n" s="147">
+        <v>0.95</v>
+      </c>
+      <c r="AT118" t="n" s="147">
+        <v>5579.0</v>
+      </c>
+      <c r="AU118" t="n" s="147">
+        <v>16735.95</v>
+      </c>
+      <c r="AV118" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW118" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="AO119" t="s" s="147">
+        <v>190</v>
+      </c>
+      <c r="AP119" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ119" t="n" s="147">
+        <v>82.0</v>
+      </c>
+      <c r="AR119" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS119" t="n" s="147">
+        <v>4.88</v>
+      </c>
+      <c r="AT119" t="n" s="147">
+        <v>2332.0</v>
+      </c>
+      <c r="AU119" t="n" s="147">
+        <v>9328.0</v>
+      </c>
+      <c r="AV119" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW119" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="AO120" t="s" s="147">
+        <v>190</v>
+      </c>
+      <c r="AP120" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ120" t="n" s="147">
+        <v>333.0</v>
+      </c>
+      <c r="AR120" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS120" t="n" s="147">
+        <v>1.81</v>
+      </c>
+      <c r="AT120" t="n" s="147">
+        <v>2084.0</v>
+      </c>
+      <c r="AU120" t="n" s="147">
+        <v>12503.15</v>
+      </c>
+      <c r="AV120" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW120" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="AO121" t="s" s="147">
+        <v>191</v>
+      </c>
+      <c r="AP121" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ121" t="n" s="147">
+        <v>41.0</v>
+      </c>
+      <c r="AR121" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS121" t="n" s="147">
+        <v>4.88</v>
+      </c>
+      <c r="AT121" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU121" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV121" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW121" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="AO122" t="s" s="147">
+        <v>191</v>
+      </c>
+      <c r="AP122" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ122" t="n" s="147">
+        <v>286.0</v>
+      </c>
+      <c r="AR122" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS122" t="n" s="147">
+        <v>1.4</v>
+      </c>
+      <c r="AT122" t="n" s="147">
+        <v>3658.0</v>
+      </c>
+      <c r="AU122" t="n" s="147">
+        <v>14630.0</v>
+      </c>
+      <c r="AV122" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW122" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="AO123" t="s" s="147">
+        <v>194</v>
+      </c>
+      <c r="AP123" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ123" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AR123" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS123" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AT123" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU123" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AV123" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW123" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="AO124" t="s" s="147">
+        <v>194</v>
+      </c>
+      <c r="AP124" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ124" t="n" s="147">
+        <v>57.0</v>
+      </c>
+      <c r="AR124" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS124" t="n" s="147">
+        <v>3.51</v>
+      </c>
+      <c r="AT124" t="n" s="147">
+        <v>58.0</v>
+      </c>
+      <c r="AU124" t="n" s="147">
+        <v>116.05</v>
+      </c>
+      <c r="AV124" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW124" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="AO125" t="s" s="147">
+        <v>195</v>
+      </c>
+      <c r="AP125" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ125" t="n" s="147">
+        <v>90.0</v>
+      </c>
+      <c r="AR125" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS125" t="n" s="147">
+        <v>1.12</v>
+      </c>
+      <c r="AT125" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU125" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AV125" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW125" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="AO126" t="s" s="147">
+        <v>195</v>
+      </c>
+      <c r="AP126" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ126" t="n" s="147">
+        <v>310.0</v>
+      </c>
+      <c r="AR126" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS126" t="n" s="147">
+        <v>2.26</v>
+      </c>
+      <c r="AT126" t="n" s="147">
+        <v>2744.0</v>
+      </c>
+      <c r="AU126" t="n" s="147">
+        <v>19205.45</v>
+      </c>
+      <c r="AV126" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW126" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="AO127" t="s" s="147">
+        <v>196</v>
+      </c>
+      <c r="AP127" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ127" t="n" s="147">
+        <v>64.0</v>
+      </c>
+      <c r="AR127" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS127" t="n" s="147">
+        <v>9.38</v>
+      </c>
+      <c r="AT127" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU127" t="n" s="147">
+        <v>330.0</v>
+      </c>
+      <c r="AV127" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW127" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="AO128" t="s" s="147">
+        <v>196</v>
+      </c>
+      <c r="AP128" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ128" t="n" s="147">
+        <v>281.0</v>
+      </c>
+      <c r="AR128" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS128" t="n" s="147">
+        <v>2.5</v>
+      </c>
+      <c r="AT128" t="n" s="147">
+        <v>66.0</v>
+      </c>
+      <c r="AU128" t="n" s="147">
+        <v>463.1</v>
+      </c>
+      <c r="AV128" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW128" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AO129" t="s" s="147">
+        <v>197</v>
+      </c>
+      <c r="AP129" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ129" t="n" s="147">
+        <v>91.0</v>
+      </c>
+      <c r="AR129" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS129" t="n" s="147">
+        <v>8.8</v>
+      </c>
+      <c r="AT129" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU129" t="n" s="147">
+        <v>440.0</v>
+      </c>
+      <c r="AV129" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW129" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="AO130" t="s" s="147">
+        <v>197</v>
+      </c>
+      <c r="AP130" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ130" t="n" s="147">
+        <v>279.0</v>
+      </c>
+      <c r="AR130" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS130" t="n" s="147">
+        <v>1.44</v>
+      </c>
+      <c r="AT130" t="n" s="147">
+        <v>78.0</v>
+      </c>
+      <c r="AU130" t="n" s="147">
+        <v>312.95</v>
+      </c>
+      <c r="AV130" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW130" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="AO131" t="s" s="147">
+        <v>198</v>
+      </c>
+      <c r="AP131" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ131" t="n" s="147">
+        <v>60.0</v>
+      </c>
+      <c r="AR131" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS131" t="n" s="147">
+        <v>3.34</v>
+      </c>
+      <c r="AT131" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU131" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV131" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW131" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="AO132" t="s" s="147">
+        <v>198</v>
+      </c>
+      <c r="AP132" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ132" t="n" s="147">
+        <v>272.0</v>
+      </c>
+      <c r="AR132" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS132" t="n" s="147">
+        <v>1.11</v>
+      </c>
+      <c r="AT132" t="n" s="147">
+        <v>4067.0</v>
+      </c>
+      <c r="AU132" t="n" s="147">
+        <v>12202.3</v>
+      </c>
+      <c r="AV132" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW132" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="AO133" t="s" s="147">
+        <v>199</v>
+      </c>
+      <c r="AP133" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ133" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AR133" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS133" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT133" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU133" t="n" s="147">
+        <v>0.55</v>
+      </c>
+      <c r="AV133" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW133" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="AO134" t="s" s="147">
+        <v>199</v>
+      </c>
+      <c r="AP134" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ134" t="n" s="147">
+        <v>307.0</v>
+      </c>
+      <c r="AR134" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS134" t="n" s="147">
+        <v>2.29</v>
+      </c>
+      <c r="AT134" t="n" s="147">
+        <v>3382.0</v>
+      </c>
+      <c r="AU134" t="n" s="147">
+        <v>23674.2</v>
+      </c>
+      <c r="AV134" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW134" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="AO135" t="s" s="147">
+        <v>200</v>
+      </c>
+      <c r="AP135" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ135" t="n" s="147">
+        <v>20.0</v>
+      </c>
+      <c r="AR135" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS135" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AT135" t="n" s="147">
+        <v>4725.0</v>
+      </c>
+      <c r="AU135" t="n" s="147">
+        <v>9449.0</v>
+      </c>
+      <c r="AV135" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW135" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="AO136" t="s" s="147">
+        <v>200</v>
+      </c>
+      <c r="AP136" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ136" t="n" s="147">
+        <v>236.0</v>
+      </c>
+      <c r="AR136" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS136" t="n" s="147">
+        <v>2.12</v>
+      </c>
+      <c r="AT136" t="n" s="147">
+        <v>235.0</v>
+      </c>
+      <c r="AU136" t="n" s="147">
+        <v>1175.9</v>
+      </c>
+      <c r="AV136" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW136" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="AO137" t="s" s="147">
+        <v>201</v>
+      </c>
+      <c r="AP137" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ137" t="n" s="147">
+        <v>57.0</v>
+      </c>
+      <c r="AR137" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AS137" t="n" s="147">
+        <v>3.51</v>
+      </c>
+      <c r="AT137" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU137" t="n" s="147">
+        <v>110.0</v>
+      </c>
+      <c r="AV137" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW137" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="AO138" t="s" s="147">
+        <v>201</v>
+      </c>
+      <c r="AP138" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ138" t="n" s="147">
+        <v>364.0</v>
+      </c>
+      <c r="AR138" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS138" t="n" s="147">
+        <v>1.38</v>
+      </c>
+      <c r="AT138" t="n" s="147">
+        <v>71.0</v>
+      </c>
+      <c r="AU138" t="n" s="147">
+        <v>352.55</v>
+      </c>
+      <c r="AV138" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW138" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="AO139" t="s" s="147">
+        <v>202</v>
+      </c>
+      <c r="AP139" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ139" t="n" s="147">
+        <v>72.0</v>
+      </c>
+      <c r="AR139" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS139" t="n" s="147">
+        <v>8.34</v>
+      </c>
+      <c r="AT139" t="n" s="147">
+        <v>1491.0</v>
+      </c>
+      <c r="AU139" t="n" s="147">
+        <v>8943.0</v>
+      </c>
+      <c r="AV139" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW139" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AO140" t="s" s="147">
+        <v>202</v>
+      </c>
+      <c r="AP140" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ140" t="n" s="147">
+        <v>371.0</v>
+      </c>
+      <c r="AR140" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS140" t="n" s="147">
+        <v>1.08</v>
+      </c>
+      <c r="AT140" t="n" s="147">
+        <v>2896.0</v>
+      </c>
+      <c r="AU140" t="n" s="147">
+        <v>11585.2</v>
+      </c>
+      <c r="AV140" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW140" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="AO141" t="s" s="147">
+        <v>203</v>
+      </c>
+      <c r="AP141" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ141" t="n" s="147">
+        <v>20.0</v>
+      </c>
+      <c r="AR141" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS141" t="n" s="147">
+        <v>30.0</v>
+      </c>
+      <c r="AT141" t="n" s="147">
+        <v>1536.0</v>
+      </c>
+      <c r="AU141" t="n" s="147">
+        <v>9218.0</v>
+      </c>
+      <c r="AV141" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW141" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="AO142" t="s" s="147">
+        <v>203</v>
+      </c>
+      <c r="AP142" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ142" t="n" s="147">
+        <v>299.0</v>
+      </c>
+      <c r="AR142" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS142" t="n" s="147">
+        <v>1.68</v>
+      </c>
+      <c r="AT142" t="n" s="147">
+        <v>1320.0</v>
+      </c>
+      <c r="AU142" t="n" s="147">
+        <v>6600.55</v>
+      </c>
+      <c r="AV142" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW142" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="AO143" t="s" s="147">
+        <v>204</v>
+      </c>
+      <c r="AP143" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ143" t="n" s="147">
+        <v>74.0</v>
+      </c>
+      <c r="AR143" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS143" t="n" s="147">
+        <v>5.41</v>
+      </c>
+      <c r="AT143" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU143" t="n" s="147">
+        <v>220.0</v>
+      </c>
+      <c r="AV143" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW143" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AO144" t="s" s="147">
+        <v>204</v>
+      </c>
+      <c r="AP144" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ144" t="n" s="147">
+        <v>413.0</v>
+      </c>
+      <c r="AR144" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS144" t="n" s="147">
+        <v>0.73</v>
+      </c>
+      <c r="AT144" t="n" s="147">
+        <v>84.0</v>
+      </c>
+      <c r="AU144" t="n" s="147">
+        <v>250.8</v>
+      </c>
+      <c r="AV144" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW144" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AO145" t="s" s="147">
+        <v>205</v>
+      </c>
+      <c r="AP145" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ145" t="n" s="147">
+        <v>51.0</v>
+      </c>
+      <c r="AR145" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS145" t="n" s="147">
+        <v>1.97</v>
+      </c>
+      <c r="AT145" t="n" s="147">
+        <v>56.0</v>
+      </c>
+      <c r="AU145" t="n" s="147">
+        <v>55.55</v>
+      </c>
+      <c r="AV145" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW145" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AO146" t="s" s="147">
+        <v>205</v>
+      </c>
+      <c r="AP146" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ146" t="n" s="147">
+        <v>370.0</v>
+      </c>
+      <c r="AR146" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS146" t="n" s="147">
+        <v>2.17</v>
+      </c>
+      <c r="AT146" t="n" s="147">
+        <v>64.0</v>
+      </c>
+      <c r="AU146" t="n" s="147">
+        <v>513.15</v>
+      </c>
+      <c r="AV146" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW146" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AO147" t="s" s="147">
+        <v>206</v>
+      </c>
+      <c r="AP147" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ147" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AR147" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS147" t="n" s="147">
+        <v>10.0</v>
+      </c>
+      <c r="AT147" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU147" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AV147" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW147" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AO148" t="s" s="147">
+        <v>206</v>
+      </c>
+      <c r="AP148" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ148" t="n" s="147">
+        <v>323.0</v>
+      </c>
+      <c r="AR148" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS148" t="n" s="147">
+        <v>0.93</v>
+      </c>
+      <c r="AT148" t="n" s="147">
+        <v>61.0</v>
+      </c>
+      <c r="AU148" t="n" s="147">
+        <v>183.15</v>
+      </c>
+      <c r="AV148" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW148" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AO149" t="s" s="147">
+        <v>207</v>
+      </c>
+      <c r="AP149" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ149" t="n" s="147">
+        <v>24.0</v>
+      </c>
+      <c r="AR149" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AS149" t="n" s="147">
+        <v>12.5</v>
+      </c>
+      <c r="AT149" t="n" s="147">
+        <v>55.0</v>
+      </c>
+      <c r="AU149" t="n" s="147">
+        <v>165.0</v>
+      </c>
+      <c r="AV149" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW149" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AO150" t="s" s="147">
+        <v>207</v>
+      </c>
+      <c r="AP150" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ150" t="n" s="147">
+        <v>449.0</v>
+      </c>
+      <c r="AR150" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS150" t="n" s="147">
+        <v>2.45</v>
+      </c>
+      <c r="AT150" t="n" s="147">
+        <v>1211.0</v>
+      </c>
+      <c r="AU150" t="n" s="147">
+        <v>13316.6</v>
+      </c>
+      <c r="AV150" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW150" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AO151" t="s" s="147">
+        <v>208</v>
+      </c>
+      <c r="AP151" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ151" t="n" s="147">
+        <v>68.0</v>
+      </c>
+      <c r="AR151" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AS151" t="n" s="147">
+        <v>7.36</v>
+      </c>
+      <c r="AT151" t="n" s="147">
+        <v>1736.0</v>
+      </c>
+      <c r="AU151" t="n" s="147">
+        <v>8679.0</v>
+      </c>
+      <c r="AV151" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW151" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AO152" t="s" s="147">
+        <v>208</v>
+      </c>
+      <c r="AP152" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ152" t="n" s="147">
+        <v>482.0</v>
+      </c>
+      <c r="AR152" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS152" t="n" s="147">
+        <v>1.87</v>
+      </c>
+      <c r="AT152" t="n" s="147">
+        <v>1287.0</v>
+      </c>
+      <c r="AU152" t="n" s="147">
+        <v>11583.55</v>
+      </c>
+      <c r="AV152" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW152" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AO153" t="s" s="147">
+        <v>209</v>
+      </c>
+      <c r="AP153" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ153" t="n" s="147">
+        <v>12.0</v>
+      </c>
+      <c r="AR153" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS153" t="n" s="147">
+        <v>8.34</v>
+      </c>
+      <c r="AT153" t="n" s="147">
+        <v>8569.0</v>
+      </c>
+      <c r="AU153" t="n" s="147">
+        <v>8569.0</v>
+      </c>
+      <c r="AV153" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW153" t="n" s="147">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="AO154" t="s" s="147">
+        <v>209</v>
+      </c>
+      <c r="AP154" t="s" s="147">
+        <v>221</v>
+      </c>
+      <c r="AQ154" t="n" s="147">
+        <v>162.0</v>
+      </c>
+      <c r="AR154" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS154" t="n" s="147">
+        <v>0.62</v>
+      </c>
+      <c r="AT154" t="n" s="147">
+        <v>91.0</v>
+      </c>
+      <c r="AU154" t="n" s="147">
+        <v>90.75</v>
+      </c>
+      <c r="AV154" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW154" t="n" s="147">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -28569,915 +32059,343 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="B29" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C29" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G29" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H29" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B30" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C30" t="n" s="106">
-        <v>25.0</v>
-      </c>
-      <c r="D30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G30" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H30" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="B31" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C31" t="n" s="106">
-        <v>6.0</v>
-      </c>
-      <c r="D31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G31" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H31" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
-        <v>223</v>
-      </c>
-      <c r="B32" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C32" t="n" s="106">
-        <v>9.0</v>
-      </c>
-      <c r="D32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n" s="108">
-        <v>3.7</v>
-      </c>
-      <c r="H32" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="B33" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C33" t="n" s="106">
-        <v>130.0</v>
-      </c>
-      <c r="D33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n" s="108">
-        <v>4.2</v>
-      </c>
-      <c r="H33" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C34" t="n" s="106">
-        <v>66.0</v>
-      </c>
-      <c r="D34" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="n" s="108">
-        <v>5005.0</v>
-      </c>
-      <c r="F34" t="n" s="108">
-        <v>5005.0</v>
-      </c>
-      <c r="G34" t="n" s="108">
-        <v>1.9</v>
-      </c>
-      <c r="H34" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="B35" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C35" t="n" s="106">
-        <v>373.0</v>
-      </c>
-      <c r="D35" t="n" s="108">
-        <v>10.0</v>
-      </c>
-      <c r="E35" t="n" s="108">
-        <v>8917.0</v>
-      </c>
-      <c r="F35" t="n" s="108">
-        <v>89166.0</v>
-      </c>
-      <c r="G35" t="n" s="108">
-        <v>2.2</v>
-      </c>
-      <c r="H35" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
-        <v>227</v>
-      </c>
-      <c r="B36" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C36" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="H36" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="B37" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C37" t="n" s="106">
-        <v>14.0</v>
-      </c>
-      <c r="D37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="108">
-        <v>3.3</v>
-      </c>
-      <c r="H37" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B38" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C38" t="n" s="106">
-        <v>438.0</v>
-      </c>
-      <c r="D38" t="n" s="108">
-        <v>6.0</v>
-      </c>
-      <c r="E38" t="n" s="108">
-        <v>79.0</v>
-      </c>
-      <c r="F38" t="n" s="108">
-        <v>473.0</v>
-      </c>
-      <c r="G38" t="n" s="108">
-        <v>1.1</v>
-      </c>
-      <c r="H38" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="B39" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C39" t="n" s="106">
-        <v>17.0</v>
-      </c>
-      <c r="D39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n" s="108">
-        <v>1.5</v>
-      </c>
-      <c r="H39" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="B40" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C40" t="n" s="106">
-        <v>71.0</v>
-      </c>
-      <c r="D40" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="108">
-        <v>6358.0</v>
-      </c>
-      <c r="F40" t="n" s="108">
-        <v>6358.0</v>
-      </c>
-      <c r="G40" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H40" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="3">
-        <v>233</v>
-      </c>
-      <c r="B41" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C41" t="n" s="106">
-        <v>88.0</v>
-      </c>
-      <c r="D41" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="E41" t="n" s="108">
-        <v>979.0</v>
-      </c>
-      <c r="F41" t="n" s="108">
-        <v>3916.0</v>
-      </c>
-      <c r="G41" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H41" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="B42" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C42" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n" s="108">
-        <v>3.3</v>
-      </c>
-      <c r="H42" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B43" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C43" t="n" s="106">
-        <v>126.0</v>
-      </c>
-      <c r="D43" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E43" t="n" s="108">
-        <v>2827.0</v>
-      </c>
-      <c r="F43" t="n" s="108">
-        <v>2827.0</v>
-      </c>
-      <c r="G43" t="n" s="108">
-        <v>1.5</v>
-      </c>
-      <c r="H43" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="B44" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C44" t="n" s="106">
-        <v>10.0</v>
-      </c>
-      <c r="D44" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E44" t="n" s="108">
-        <v>4521.0</v>
-      </c>
-      <c r="F44" t="n" s="108">
-        <v>4521.0</v>
-      </c>
-      <c r="G44" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H44" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="3">
-        <v>223</v>
-      </c>
-      <c r="B45" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C45" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G45" t="n" s="108">
-        <v>3.7</v>
-      </c>
-      <c r="H45" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="B46" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C46" t="n" s="106">
-        <v>161.0</v>
-      </c>
-      <c r="D46" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="E46" t="n" s="108">
-        <v>13028.0</v>
-      </c>
-      <c r="F46" t="n" s="108">
-        <v>39083.0</v>
-      </c>
-      <c r="G46" t="n" s="108">
-        <v>2.7</v>
-      </c>
-      <c r="H46" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="B47" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C47" t="n" s="106">
-        <v>57.0</v>
-      </c>
-      <c r="D47" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n" s="108">
-        <v>6358.0</v>
-      </c>
-      <c r="F47" t="n" s="108">
-        <v>6358.0</v>
-      </c>
-      <c r="G47" t="n" s="108">
-        <v>1.4</v>
-      </c>
-      <c r="H47" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="B48" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C48" t="n" s="106">
-        <v>350.0</v>
-      </c>
-      <c r="D48" t="n" s="108">
-        <v>18.0</v>
-      </c>
-      <c r="E48" t="n" s="108">
-        <v>11599.0</v>
-      </c>
-      <c r="F48" t="n" s="108">
-        <v>208780.0</v>
-      </c>
-      <c r="G48" t="n" s="108">
-        <v>1.1</v>
-      </c>
-      <c r="H48" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="3">
-        <v>227</v>
-      </c>
-      <c r="B49" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C49" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G49" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H49" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="B50" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C50" t="n" s="106">
-        <v>62.0</v>
-      </c>
-      <c r="D50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G50" t="n" s="108">
-        <v>1.3</v>
-      </c>
-      <c r="H50" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B51" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C51" t="n" s="106">
-        <v>8.0</v>
-      </c>
-      <c r="D51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F51" t="n" s="108">
-        <v>4.4</v>
-      </c>
-      <c r="G51" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B52" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C52" t="n" s="106">
-        <v>3819.0</v>
-      </c>
-      <c r="D52" t="n" s="108">
-        <v>8.0</v>
-      </c>
-      <c r="E52" t="n" s="108">
-        <v>260.0</v>
-      </c>
-      <c r="F52" t="n" s="108">
-        <v>2077.35</v>
-      </c>
-      <c r="G52" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H52" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B53" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C53" t="n" s="106">
-        <v>902.0</v>
-      </c>
-      <c r="D53" t="n" s="108">
-        <v>87.0</v>
-      </c>
-      <c r="E53" t="n" s="108">
-        <v>55.0</v>
-      </c>
-      <c r="F53" t="n" s="108">
-        <v>4785.0</v>
-      </c>
-      <c r="G53" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H53" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B54" t="s" s="106">
-        <v>230</v>
-      </c>
-      <c r="C54" t="n" s="106">
-        <v>4390.0</v>
-      </c>
-      <c r="D54" t="n" s="108">
-        <v>109.0</v>
-      </c>
-      <c r="E54" t="n" s="108">
-        <v>55.0</v>
-      </c>
-      <c r="F54" t="n" s="108">
-        <v>5995.0</v>
-      </c>
-      <c r="G54" t="n" s="108">
-        <v>2.8</v>
-      </c>
-      <c r="H54" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K54" t="n" s="108">
-        <v>0.0</v>
-      </c>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="127"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="126"/>

--- a/build/output_place/12월_키워드보고서_spogymmilon_naver.xlsx
+++ b/build/output_place/12월_키워드보고서_spogymmilon_naver.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="224">
   <si>
     <t>검색어 평균/합계 비교</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -819,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -830,8 +830,10 @@
     <numFmt numFmtId="181" formatCode="[Red]\▲#,##0.00%;[Blue]\▼#,##0.00%;"/>
     <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1125,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1429,7 +1436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1900,6 +1907,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="184" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="185" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
@@ -29566,1852 +29577,4876 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="125"/>
+      <c r="B61" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D61" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E61" t="n" s="148">
+        <v>6.13</v>
+      </c>
+      <c r="F61" t="n" s="150">
+        <v>3.3</v>
+      </c>
+      <c r="G61" t="n" s="151">
+        <v>390.0</v>
+      </c>
+      <c r="H61" t="n" s="151">
+        <v>1169.85</v>
+      </c>
+      <c r="I61" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="125"/>
+      <c r="B62" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D62" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F62" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G62" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="n" s="151">
+        <v>3.3</v>
+      </c>
+      <c r="I62" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="125"/>
+      <c r="B63" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D63" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E63" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n" s="150">
+        <v>3.3</v>
+      </c>
+      <c r="G63" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="n" s="151">
+        <v>2.2</v>
+      </c>
+      <c r="I63" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="125"/>
+      <c r="B64" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D64" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E64" t="n" s="148">
+        <v>12.5</v>
+      </c>
+      <c r="F64" t="n" s="150">
+        <v>3.8</v>
+      </c>
+      <c r="G64" t="n" s="151">
+        <v>55.0</v>
+      </c>
+      <c r="H64" t="n" s="151">
+        <v>110.55</v>
+      </c>
+      <c r="I64" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="125"/>
+      <c r="B65" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D65" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E65" t="n" s="148">
+        <v>5.27</v>
+      </c>
+      <c r="F65" t="n" s="150">
+        <v>2.7</v>
+      </c>
+      <c r="G65" t="n" s="151">
+        <v>55.0</v>
+      </c>
+      <c r="H65" t="n" s="151">
+        <v>55.0</v>
+      </c>
+      <c r="I65" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="125"/>
+      <c r="B66" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D66" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G66" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="n" s="151">
+        <v>2.75</v>
+      </c>
+      <c r="I66" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="125"/>
+      <c r="B67" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D67" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G67" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="n" s="151">
+        <v>8.25</v>
+      </c>
+      <c r="I67" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="124"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="125"/>
+      <c r="B68" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D68" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n" s="148">
+        <v>2.57</v>
+      </c>
+      <c r="F68" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G68" t="n" s="151">
+        <v>8425.0</v>
+      </c>
+      <c r="H68" t="n" s="151">
+        <v>8425.45</v>
+      </c>
+      <c r="I68" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="125"/>
+      <c r="B69" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D69" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="n" s="148">
+        <v>1.59</v>
+      </c>
+      <c r="F69" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G69" t="n" s="151">
+        <v>82.0</v>
+      </c>
+      <c r="H69" t="n" s="151">
+        <v>81.95</v>
+      </c>
+      <c r="I69" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="124"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="125"/>
+      <c r="B70" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D70" t="n" s="148">
+        <v>6.0</v>
+      </c>
+      <c r="E70" t="n" s="148">
+        <v>7.06</v>
+      </c>
+      <c r="F70" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G70" t="n" s="151">
+        <v>1459.0</v>
+      </c>
+      <c r="H70" t="n" s="151">
+        <v>8753.8</v>
+      </c>
+      <c r="I70" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="124"/>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="125"/>
+      <c r="B71" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D71" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E71" t="n" s="148">
+        <v>4.06</v>
+      </c>
+      <c r="F71" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G71" t="n" s="151">
+        <v>62.0</v>
+      </c>
+      <c r="H71" t="n" s="151">
+        <v>187.0</v>
+      </c>
+      <c r="I71" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="124"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="125"/>
+      <c r="B72" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D72" t="n" s="148">
+        <v>6.0</v>
+      </c>
+      <c r="E72" t="n" s="148">
+        <v>5.89</v>
+      </c>
+      <c r="F72" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G72" t="n" s="151">
+        <v>1893.0</v>
+      </c>
+      <c r="H72" t="n" s="151">
+        <v>11359.15</v>
+      </c>
+      <c r="I72" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="124"/>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="125"/>
+      <c r="B73" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D73" t="n" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="E73" t="n" s="148">
+        <v>3.88</v>
+      </c>
+      <c r="F73" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G73" t="n" s="151">
+        <v>2469.0</v>
+      </c>
+      <c r="H73" t="n" s="151">
+        <v>12345.3</v>
+      </c>
+      <c r="I73" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="125"/>
+      <c r="B74" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D74" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E74" t="n" s="148">
+        <v>1.82</v>
+      </c>
+      <c r="F74" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G74" t="n" s="151">
+        <v>65.0</v>
+      </c>
+      <c r="H74" t="n" s="151">
+        <v>130.9</v>
+      </c>
+      <c r="I74" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="125"/>
+      <c r="B75" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D75" t="n" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="E75" t="n" s="148">
+        <v>3.68</v>
+      </c>
+      <c r="F75" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G75" t="n" s="151">
+        <v>2052.0</v>
+      </c>
+      <c r="H75" t="n" s="151">
+        <v>10261.35</v>
+      </c>
+      <c r="I75" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="125"/>
+      <c r="B76" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D76" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E76" t="n" s="148">
+        <v>0.91</v>
+      </c>
+      <c r="F76" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G76" t="n" s="151">
+        <v>90.0</v>
+      </c>
+      <c r="H76" t="n" s="151">
+        <v>89.65</v>
+      </c>
+      <c r="I76" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="124"/>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="125"/>
+      <c r="B77" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D77" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E77" t="n" s="148">
+        <v>1.84</v>
+      </c>
+      <c r="F77" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G77" t="n" s="151">
+        <v>65.0</v>
+      </c>
+      <c r="H77" t="n" s="151">
+        <v>130.35</v>
+      </c>
+      <c r="I77" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="124"/>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="125"/>
+      <c r="B78" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D78" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E78" t="n" s="148">
+        <v>1.57</v>
+      </c>
+      <c r="F78" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G78" t="n" s="151">
+        <v>66.0</v>
+      </c>
+      <c r="H78" t="n" s="151">
+        <v>131.45</v>
+      </c>
+      <c r="I78" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="124"/>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="125"/>
+      <c r="B79" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D79" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E79" t="n" s="148">
+        <v>3.27</v>
+      </c>
+      <c r="F79" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G79" t="n" s="151">
+        <v>4232.0</v>
+      </c>
+      <c r="H79" t="n" s="151">
+        <v>12695.65</v>
+      </c>
+      <c r="I79" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="124"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="125"/>
+      <c r="B80" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D80" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G80" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H80" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I80" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="124"/>
-      <c r="J81" s="125"/>
+      <c r="B81" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D81" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E81" t="n" s="148">
+        <v>4.31</v>
+      </c>
+      <c r="F81" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G81" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H81" t="n" s="151">
+        <v>228.25</v>
+      </c>
+      <c r="I81" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="125"/>
+      <c r="B82" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D82" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E82" t="n" s="148">
+        <v>1.62</v>
+      </c>
+      <c r="F82" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G82" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H82" t="n" s="151">
+        <v>117.7</v>
+      </c>
+      <c r="I82" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="124"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="124"/>
-      <c r="J83" s="125"/>
+      <c r="B83" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D83" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E83" t="n" s="148">
+        <v>3.51</v>
+      </c>
+      <c r="F83" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G83" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H83" t="n" s="151">
+        <v>229.9</v>
+      </c>
+      <c r="I83" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="125"/>
+      <c r="B84" t="s" s="148">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D84" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E84" t="n" s="148">
+        <v>3.93</v>
+      </c>
+      <c r="F84" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G84" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H84" t="n" s="151">
+        <v>224.4</v>
+      </c>
+      <c r="I84" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="124"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="125"/>
+      <c r="B85" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D85" t="n" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="E85" t="n" s="148">
+        <v>5.89</v>
+      </c>
+      <c r="F85" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G85" t="n" s="151">
+        <v>1446.0</v>
+      </c>
+      <c r="H85" t="n" s="151">
+        <v>7231.4</v>
+      </c>
+      <c r="I85" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="124"/>
-      <c r="J86" s="125"/>
+      <c r="B86" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D86" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n" s="148">
+        <v>1.97</v>
+      </c>
+      <c r="F86" t="n" s="150">
+        <v>3.3</v>
+      </c>
+      <c r="G86" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H86" t="n" s="151">
+        <v>57.2</v>
+      </c>
+      <c r="I86" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="125"/>
+      <c r="B87" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D87" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n" s="150">
+        <v>4.0</v>
+      </c>
+      <c r="G87" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I87" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="124"/>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="124"/>
-      <c r="J88" s="125"/>
+      <c r="B88" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D88" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G88" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I88" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="125"/>
+      <c r="B89" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D89" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G89" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="n" s="151">
+        <v>0.55</v>
+      </c>
+      <c r="I89" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="124"/>
-      <c r="J90" s="125"/>
+      <c r="B90" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D90" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F90" t="n" s="150">
+        <v>2.7</v>
+      </c>
+      <c r="G90" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H90" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I90" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J90" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="125"/>
+      <c r="B91" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D91" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E91" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G91" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H91" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I91" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J91" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="124"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="125"/>
+      <c r="B92" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D92" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F92" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G92" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H92" t="n" s="151">
+        <v>13.2</v>
+      </c>
+      <c r="I92" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J92" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="124"/>
-      <c r="J93" s="125"/>
+      <c r="B93" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D93" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E93" t="n" s="148">
+        <v>1.43</v>
+      </c>
+      <c r="F93" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G93" t="n" s="151">
+        <v>79.0</v>
+      </c>
+      <c r="H93" t="n" s="151">
+        <v>78.65</v>
+      </c>
+      <c r="I93" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J93" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="124"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="124"/>
-      <c r="E94" s="124"/>
-      <c r="F94" s="124"/>
-      <c r="G94" s="125"/>
-      <c r="H94" s="125"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="125"/>
+      <c r="B94" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D94" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E94" t="n" s="148">
+        <v>2.25</v>
+      </c>
+      <c r="F94" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G94" t="n" s="151">
+        <v>6120.0</v>
+      </c>
+      <c r="H94" t="n" s="151">
+        <v>12239.7</v>
+      </c>
+      <c r="I94" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J94" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="124"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124"/>
-      <c r="E95" s="124"/>
-      <c r="F95" s="124"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="124"/>
-      <c r="J95" s="125"/>
+      <c r="B95" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D95" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E95" t="n" s="148">
+        <v>1.08</v>
+      </c>
+      <c r="F95" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G95" t="n" s="151">
+        <v>8693.0</v>
+      </c>
+      <c r="H95" t="n" s="151">
+        <v>8693.3</v>
+      </c>
+      <c r="I95" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="125"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="124"/>
-      <c r="J96" s="125"/>
+      <c r="B96" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D96" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E96" t="n" s="148">
+        <v>2.78</v>
+      </c>
+      <c r="F96" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G96" t="n" s="151">
+        <v>6885.0</v>
+      </c>
+      <c r="H96" t="n" s="151">
+        <v>20654.7</v>
+      </c>
+      <c r="I96" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J96" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="124"/>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="125"/>
+      <c r="B97" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D97" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E97" t="n" s="148">
+        <v>1.79</v>
+      </c>
+      <c r="F97" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G97" t="n" s="151">
+        <v>4329.0</v>
+      </c>
+      <c r="H97" t="n" s="151">
+        <v>8658.65</v>
+      </c>
+      <c r="I97" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J97" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="124"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="125"/>
+      <c r="B98" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D98" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E98" t="n" s="148">
+        <v>1.73</v>
+      </c>
+      <c r="F98" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G98" t="n" s="151">
+        <v>67.0</v>
+      </c>
+      <c r="H98" t="n" s="151">
+        <v>134.75</v>
+      </c>
+      <c r="I98" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J98" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="124"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="125"/>
+      <c r="B99" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D99" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E99" t="n" s="148">
+        <v>2.35</v>
+      </c>
+      <c r="F99" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G99" t="n" s="151">
+        <v>63.0</v>
+      </c>
+      <c r="H99" t="n" s="151">
+        <v>188.1</v>
+      </c>
+      <c r="I99" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J99" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="125"/>
+      <c r="B100" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D100" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E100" t="n" s="148">
+        <v>2.78</v>
+      </c>
+      <c r="F100" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G100" t="n" s="151">
+        <v>63.0</v>
+      </c>
+      <c r="H100" t="n" s="151">
+        <v>188.1</v>
+      </c>
+      <c r="I100" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J100" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="124"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="124"/>
-      <c r="J101" s="125"/>
+      <c r="B101" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D101" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E101" t="n" s="148">
+        <v>3.81</v>
+      </c>
+      <c r="F101" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G101" t="n" s="151">
+        <v>2883.0</v>
+      </c>
+      <c r="H101" t="n" s="151">
+        <v>11531.85</v>
+      </c>
+      <c r="I101" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J101" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="124"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="124"/>
-      <c r="J102" s="125"/>
+      <c r="B102" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D102" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E102" t="n" s="148">
+        <v>1.2</v>
+      </c>
+      <c r="F102" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G102" t="n" s="151">
+        <v>72.0</v>
+      </c>
+      <c r="H102" t="n" s="151">
+        <v>71.5</v>
+      </c>
+      <c r="I102" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="124"/>
-      <c r="C103" s="124"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="124"/>
-      <c r="G103" s="125"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="124"/>
-      <c r="J103" s="125"/>
+      <c r="B103" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D103" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E103" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="F103" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G103" t="n" s="151">
+        <v>73.0</v>
+      </c>
+      <c r="H103" t="n" s="151">
+        <v>73.15</v>
+      </c>
+      <c r="I103" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="124"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="124"/>
-      <c r="E104" s="124"/>
-      <c r="F104" s="124"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="124"/>
-      <c r="J104" s="125"/>
+      <c r="B104" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D104" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E104" t="n" s="148">
+        <v>2.05</v>
+      </c>
+      <c r="F104" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G104" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H104" t="n" s="151">
+        <v>118.25</v>
+      </c>
+      <c r="I104" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J104" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="124"/>
-      <c r="C105" s="124"/>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="124"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="125"/>
+      <c r="B105" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D105" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E105" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F105" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G105" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H105" t="n" s="151">
+        <v>8.25</v>
+      </c>
+      <c r="I105" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J105" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="124"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
-      <c r="F106" s="124"/>
-      <c r="G106" s="125"/>
-      <c r="H106" s="125"/>
-      <c r="I106" s="124"/>
-      <c r="J106" s="125"/>
+      <c r="B106" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D106" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E106" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="F106" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G106" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H106" t="n" s="151">
+        <v>171.6</v>
+      </c>
+      <c r="I106" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J106" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="124"/>
-      <c r="C107" s="124"/>
-      <c r="D107" s="124"/>
-      <c r="E107" s="124"/>
-      <c r="F107" s="124"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="124"/>
-      <c r="J107" s="125"/>
+      <c r="B107" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D107" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E107" t="n" s="148">
+        <v>0.91</v>
+      </c>
+      <c r="F107" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G107" t="n" s="151">
+        <v>1013.0</v>
+      </c>
+      <c r="H107" t="n" s="151">
+        <v>1012.55</v>
+      </c>
+      <c r="I107" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J107" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="124"/>
-      <c r="C108" s="124"/>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
-      <c r="F108" s="124"/>
-      <c r="G108" s="125"/>
-      <c r="H108" s="125"/>
-      <c r="I108" s="124"/>
-      <c r="J108" s="125"/>
+      <c r="B108" t="s" s="148">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D108" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E108" t="n" s="148">
+        <v>1.43</v>
+      </c>
+      <c r="F108" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G108" t="n" s="151">
+        <v>65.0</v>
+      </c>
+      <c r="H108" t="n" s="151">
+        <v>65.45</v>
+      </c>
+      <c r="I108" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J108" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="124"/>
-      <c r="C109" s="124"/>
-      <c r="D109" s="124"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="124"/>
-      <c r="G109" s="125"/>
-      <c r="H109" s="125"/>
-      <c r="I109" s="124"/>
-      <c r="J109" s="125"/>
+      <c r="B109" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D109" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E109" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F109" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G109" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H109" t="n" s="151">
+        <v>8.25</v>
+      </c>
+      <c r="I109" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J109" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="124"/>
-      <c r="C110" s="124"/>
-      <c r="D110" s="124"/>
-      <c r="E110" s="124"/>
-      <c r="F110" s="124"/>
-      <c r="G110" s="125"/>
-      <c r="H110" s="125"/>
-      <c r="I110" s="124"/>
-      <c r="J110" s="125"/>
+      <c r="B110" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D110" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E110" t="n" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="F110" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G110" t="n" s="151">
+        <v>3210.0</v>
+      </c>
+      <c r="H110" t="n" s="151">
+        <v>6420.15</v>
+      </c>
+      <c r="I110" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J110" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="124"/>
-      <c r="C111" s="124"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="124"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="125"/>
-      <c r="I111" s="124"/>
-      <c r="J111" s="125"/>
+      <c r="B111" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D111" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E111" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G111" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H111" t="n" s="151">
+        <v>4.4</v>
+      </c>
+      <c r="I111" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J111" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="124"/>
-      <c r="C112" s="124"/>
-      <c r="D112" s="124"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="124"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="125"/>
-      <c r="I112" s="124"/>
-      <c r="J112" s="125"/>
+      <c r="B112" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C112" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D112" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E112" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F112" t="n" s="150">
+        <v>1.2</v>
+      </c>
+      <c r="G112" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H112" t="n" s="151">
+        <v>2.2</v>
+      </c>
+      <c r="I112" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J112" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="124"/>
-      <c r="C113" s="124"/>
-      <c r="D113" s="124"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="124"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="124"/>
-      <c r="J113" s="125"/>
+      <c r="B113" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C113" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D113" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E113" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G113" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H113" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I113" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J113" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="124"/>
-      <c r="C114" s="124"/>
-      <c r="D114" s="124"/>
-      <c r="E114" s="124"/>
-      <c r="F114" s="124"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="124"/>
-      <c r="J114" s="125"/>
+      <c r="B114" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D114" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E114" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F114" t="n" s="150">
+        <v>1.3</v>
+      </c>
+      <c r="G114" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H114" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I114" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J114" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="124"/>
-      <c r="C115" s="124"/>
-      <c r="D115" s="124"/>
-      <c r="E115" s="124"/>
-      <c r="F115" s="124"/>
-      <c r="G115" s="125"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="124"/>
-      <c r="J115" s="125"/>
+      <c r="B115" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D115" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E115" t="n" s="148">
+        <v>3.85</v>
+      </c>
+      <c r="F115" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G115" t="n" s="151">
+        <v>63.0</v>
+      </c>
+      <c r="H115" t="n" s="151">
+        <v>63.25</v>
+      </c>
+      <c r="I115" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J115" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="124"/>
-      <c r="C116" s="124"/>
-      <c r="D116" s="124"/>
-      <c r="E116" s="124"/>
-      <c r="F116" s="124"/>
-      <c r="G116" s="125"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="124"/>
-      <c r="J116" s="125"/>
+      <c r="B116" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C116" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D116" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E116" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F116" t="n" s="150">
+        <v>1.2</v>
+      </c>
+      <c r="G116" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H116" t="n" s="151">
+        <v>17.05</v>
+      </c>
+      <c r="I116" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J116" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="124"/>
-      <c r="C117" s="124"/>
-      <c r="D117" s="124"/>
-      <c r="E117" s="124"/>
-      <c r="F117" s="124"/>
-      <c r="G117" s="125"/>
-      <c r="H117" s="125"/>
-      <c r="I117" s="124"/>
-      <c r="J117" s="125"/>
+      <c r="B117" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C117" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D117" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E117" t="n" s="148">
+        <v>1.62</v>
+      </c>
+      <c r="F117" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G117" t="n" s="151">
+        <v>80.0</v>
+      </c>
+      <c r="H117" t="n" s="151">
+        <v>79.75</v>
+      </c>
+      <c r="I117" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J117" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="124"/>
-      <c r="C118" s="124"/>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="124"/>
-      <c r="G118" s="125"/>
-      <c r="H118" s="125"/>
-      <c r="I118" s="124"/>
-      <c r="J118" s="125"/>
+      <c r="B118" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C118" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D118" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E118" t="n" s="148">
+        <v>2.28</v>
+      </c>
+      <c r="F118" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G118" t="n" s="151">
+        <v>6081.0</v>
+      </c>
+      <c r="H118" t="n" s="151">
+        <v>12162.15</v>
+      </c>
+      <c r="I118" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J118" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" s="124"/>
-      <c r="C119" s="124"/>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="124"/>
-      <c r="G119" s="125"/>
-      <c r="H119" s="125"/>
-      <c r="I119" s="124"/>
-      <c r="J119" s="125"/>
+      <c r="B119" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C119" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D119" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F119" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G119" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H119" t="n" s="151">
+        <v>29.15</v>
+      </c>
+      <c r="I119" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J119" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="124"/>
-      <c r="C120" s="124"/>
-      <c r="D120" s="124"/>
-      <c r="E120" s="124"/>
-      <c r="F120" s="124"/>
-      <c r="G120" s="125"/>
-      <c r="H120" s="125"/>
-      <c r="I120" s="124"/>
-      <c r="J120" s="125"/>
+      <c r="B120" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D120" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E120" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F120" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G120" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H120" t="n" s="151">
+        <v>30.8</v>
+      </c>
+      <c r="I120" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J120" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="124"/>
-      <c r="C121" s="124"/>
-      <c r="D121" s="124"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="124"/>
-      <c r="G121" s="125"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="124"/>
-      <c r="J121" s="125"/>
+      <c r="B121" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C121" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D121" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E121" t="n" s="148">
+        <v>2.48</v>
+      </c>
+      <c r="F121" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G121" t="n" s="151">
+        <v>1723.0</v>
+      </c>
+      <c r="H121" t="n" s="151">
+        <v>5170.0</v>
+      </c>
+      <c r="I121" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J121" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="124"/>
-      <c r="C122" s="124"/>
-      <c r="D122" s="124"/>
-      <c r="E122" s="124"/>
-      <c r="F122" s="124"/>
-      <c r="G122" s="125"/>
-      <c r="H122" s="125"/>
-      <c r="I122" s="124"/>
-      <c r="J122" s="125"/>
+      <c r="B122" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C122" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D122" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E122" t="n" s="148">
+        <v>3.39</v>
+      </c>
+      <c r="F122" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G122" t="n" s="151">
+        <v>62.0</v>
+      </c>
+      <c r="H122" t="n" s="151">
+        <v>249.7</v>
+      </c>
+      <c r="I122" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J122" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="124"/>
-      <c r="C123" s="124"/>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="124"/>
-      <c r="G123" s="125"/>
-      <c r="H123" s="125"/>
-      <c r="I123" s="124"/>
-      <c r="J123" s="125"/>
+      <c r="B123" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D123" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E123" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F123" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G123" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H123" t="n" s="151">
+        <v>29.7</v>
+      </c>
+      <c r="I123" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J123" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124" s="124"/>
-      <c r="C124" s="124"/>
-      <c r="D124" s="124"/>
-      <c r="E124" s="124"/>
-      <c r="F124" s="124"/>
-      <c r="G124" s="125"/>
-      <c r="H124" s="125"/>
-      <c r="I124" s="124"/>
-      <c r="J124" s="125"/>
+      <c r="B124" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C124" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D124" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E124" t="n" s="148">
+        <v>3.39</v>
+      </c>
+      <c r="F124" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G124" t="n" s="151">
+        <v>2283.0</v>
+      </c>
+      <c r="H124" t="n" s="151">
+        <v>9132.2</v>
+      </c>
+      <c r="I124" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J124" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="124"/>
-      <c r="C125" s="124"/>
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="124"/>
-      <c r="G125" s="125"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="124"/>
-      <c r="J125" s="125"/>
+      <c r="B125" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C125" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D125" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E125" t="n" s="148">
+        <v>1.92</v>
+      </c>
+      <c r="F125" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G125" t="n" s="151">
+        <v>1552.0</v>
+      </c>
+      <c r="H125" t="n" s="151">
+        <v>4657.4</v>
+      </c>
+      <c r="I125" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J125" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="124"/>
-      <c r="C126" s="124"/>
-      <c r="D126" s="124"/>
-      <c r="E126" s="124"/>
-      <c r="F126" s="124"/>
-      <c r="G126" s="125"/>
-      <c r="H126" s="125"/>
-      <c r="I126" s="124"/>
-      <c r="J126" s="125"/>
+      <c r="B126" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D126" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E126" t="n" s="148">
+        <v>3.85</v>
+      </c>
+      <c r="F126" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G126" t="n" s="151">
+        <v>60.0</v>
+      </c>
+      <c r="H126" t="n" s="151">
+        <v>238.7</v>
+      </c>
+      <c r="I126" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J126" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="124"/>
-      <c r="C127" s="124"/>
-      <c r="D127" s="124"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
-      <c r="G127" s="125"/>
-      <c r="H127" s="125"/>
-      <c r="I127" s="124"/>
-      <c r="J127" s="125"/>
+      <c r="B127" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C127" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D127" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E127" t="n" s="148">
+        <v>3.8</v>
+      </c>
+      <c r="F127" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G127" t="n" s="151">
+        <v>60.0</v>
+      </c>
+      <c r="H127" t="n" s="151">
+        <v>179.3</v>
+      </c>
+      <c r="I127" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J127" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="124"/>
-      <c r="C128" s="124"/>
-      <c r="D128" s="124"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="124"/>
-      <c r="G128" s="125"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="124"/>
-      <c r="J128" s="125"/>
+      <c r="B128" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D128" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E128" t="n" s="148">
+        <v>2.64</v>
+      </c>
+      <c r="F128" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G128" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H128" t="n" s="151">
+        <v>117.15</v>
+      </c>
+      <c r="I128" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J128" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="124"/>
-      <c r="C129" s="124"/>
-      <c r="D129" s="124"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="124"/>
-      <c r="G129" s="125"/>
-      <c r="H129" s="125"/>
-      <c r="I129" s="124"/>
-      <c r="J129" s="125"/>
+      <c r="B129" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C129" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D129" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E129" t="n" s="148">
+        <v>4.84</v>
+      </c>
+      <c r="F129" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G129" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H129" t="n" s="151">
+        <v>170.5</v>
+      </c>
+      <c r="I129" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J129" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="124"/>
-      <c r="C130" s="124"/>
-      <c r="D130" s="124"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="124"/>
-      <c r="G130" s="125"/>
-      <c r="H130" s="125"/>
-      <c r="I130" s="124"/>
-      <c r="J130" s="125"/>
+      <c r="B130" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D130" t="n" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="E130" t="n" s="148">
+        <v>5.89</v>
+      </c>
+      <c r="F130" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G130" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H130" t="n" s="151">
+        <v>285.45</v>
+      </c>
+      <c r="I130" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J130" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B131" s="124"/>
-      <c r="C131" s="124"/>
-      <c r="D131" s="124"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="124"/>
-      <c r="G131" s="125"/>
-      <c r="H131" s="125"/>
-      <c r="I131" s="124"/>
-      <c r="J131" s="125"/>
+      <c r="B131" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C131" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D131" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E131" t="n" s="148">
+        <v>3.23</v>
+      </c>
+      <c r="F131" t="n" s="150">
+        <v>1.4</v>
+      </c>
+      <c r="G131" t="n" s="151">
+        <v>58.0</v>
+      </c>
+      <c r="H131" t="n" s="151">
+        <v>116.6</v>
+      </c>
+      <c r="I131" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J131" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B132" s="124"/>
-      <c r="C132" s="124"/>
-      <c r="D132" s="124"/>
-      <c r="E132" s="124"/>
-      <c r="F132" s="124"/>
-      <c r="G132" s="125"/>
-      <c r="H132" s="125"/>
-      <c r="I132" s="124"/>
-      <c r="J132" s="125"/>
+      <c r="B132" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="C132" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D132" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E132" t="n" s="148">
+        <v>1.64</v>
+      </c>
+      <c r="F132" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G132" t="n" s="151">
+        <v>60.0</v>
+      </c>
+      <c r="H132" t="n" s="151">
+        <v>59.95</v>
+      </c>
+      <c r="I132" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J132" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B133" s="124"/>
-      <c r="C133" s="124"/>
-      <c r="D133" s="124"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="124"/>
-      <c r="G133" s="125"/>
-      <c r="H133" s="125"/>
-      <c r="I133" s="124"/>
-      <c r="J133" s="125"/>
+      <c r="B133" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C133" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D133" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E133" t="n" s="148">
+        <v>6.25</v>
+      </c>
+      <c r="F133" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G133" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H133" t="n" s="151">
+        <v>169.4</v>
+      </c>
+      <c r="I133" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J133" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B134" s="124"/>
-      <c r="C134" s="124"/>
-      <c r="D134" s="124"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="124"/>
-      <c r="G134" s="125"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="124"/>
-      <c r="J134" s="125"/>
+      <c r="B134" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D134" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E134" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F134" t="n" s="150">
+        <v>3.7</v>
+      </c>
+      <c r="G134" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H134" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I134" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J134" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B135" s="124"/>
-      <c r="C135" s="124"/>
-      <c r="D135" s="124"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="124"/>
-      <c r="G135" s="125"/>
-      <c r="H135" s="125"/>
-      <c r="I135" s="124"/>
-      <c r="J135" s="125"/>
+      <c r="B135" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C135" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D135" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E135" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F135" t="n" s="150">
+        <v>5.5</v>
+      </c>
+      <c r="G135" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H135" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I135" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J135" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B136" s="124"/>
-      <c r="C136" s="124"/>
-      <c r="D136" s="124"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="124"/>
-      <c r="G136" s="125"/>
-      <c r="H136" s="125"/>
-      <c r="I136" s="124"/>
-      <c r="J136" s="125"/>
+      <c r="B136" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C136" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D136" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E136" t="n" s="148">
+        <v>20.0</v>
+      </c>
+      <c r="F136" t="n" s="150">
+        <v>3.5</v>
+      </c>
+      <c r="G136" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H136" t="n" s="151">
+        <v>111.1</v>
+      </c>
+      <c r="I136" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J136" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="124"/>
-      <c r="C137" s="124"/>
-      <c r="D137" s="124"/>
-      <c r="E137" s="124"/>
-      <c r="F137" s="124"/>
-      <c r="G137" s="125"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="124"/>
-      <c r="J137" s="125"/>
+      <c r="B137" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C137" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D137" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E137" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F137" t="n" s="150">
+        <v>5.0</v>
+      </c>
+      <c r="G137" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H137" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I137" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J137" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="124"/>
-      <c r="C138" s="124"/>
-      <c r="D138" s="124"/>
-      <c r="E138" s="124"/>
-      <c r="F138" s="124"/>
-      <c r="G138" s="125"/>
-      <c r="H138" s="125"/>
-      <c r="I138" s="124"/>
-      <c r="J138" s="125"/>
+      <c r="B138" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D138" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E138" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n" s="150">
+        <v>2.8</v>
+      </c>
+      <c r="G138" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H138" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I138" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J138" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B139" s="124"/>
-      <c r="C139" s="124"/>
-      <c r="D139" s="124"/>
-      <c r="E139" s="124"/>
-      <c r="F139" s="124"/>
-      <c r="G139" s="125"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="124"/>
-      <c r="J139" s="125"/>
+      <c r="B139" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D139" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E139" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F139" t="n" s="150">
+        <v>1.3</v>
+      </c>
+      <c r="G139" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H139" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I139" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J139" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="124"/>
-      <c r="C140" s="124"/>
-      <c r="D140" s="124"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="124"/>
-      <c r="G140" s="125"/>
-      <c r="H140" s="125"/>
-      <c r="I140" s="124"/>
-      <c r="J140" s="125"/>
+      <c r="B140" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C140" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D140" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E140" t="n" s="148">
+        <v>3.13</v>
+      </c>
+      <c r="F140" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G140" t="n" s="151">
+        <v>65.0</v>
+      </c>
+      <c r="H140" t="n" s="151">
+        <v>65.45</v>
+      </c>
+      <c r="I140" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J140" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="124"/>
-      <c r="C141" s="124"/>
-      <c r="D141" s="124"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="124"/>
-      <c r="G141" s="125"/>
-      <c r="H141" s="125"/>
-      <c r="I141" s="124"/>
-      <c r="J141" s="125"/>
+      <c r="B141" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C141" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D141" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E141" t="n" s="148">
+        <v>1.27</v>
+      </c>
+      <c r="F141" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G141" t="n" s="151">
+        <v>80.0</v>
+      </c>
+      <c r="H141" t="n" s="151">
+        <v>79.75</v>
+      </c>
+      <c r="I141" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J141" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="124"/>
-      <c r="C142" s="124"/>
-      <c r="D142" s="124"/>
-      <c r="E142" s="124"/>
-      <c r="F142" s="124"/>
-      <c r="G142" s="125"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="124"/>
-      <c r="J142" s="125"/>
+      <c r="B142" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C142" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D142" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E142" t="n" s="148">
+        <v>1.04</v>
+      </c>
+      <c r="F142" t="n" s="150">
+        <v>1.2</v>
+      </c>
+      <c r="G142" t="n" s="151">
+        <v>87.0</v>
+      </c>
+      <c r="H142" t="n" s="151">
+        <v>86.9</v>
+      </c>
+      <c r="I142" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J142" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="124"/>
-      <c r="C143" s="124"/>
-      <c r="D143" s="124"/>
-      <c r="E143" s="124"/>
-      <c r="F143" s="124"/>
-      <c r="G143" s="125"/>
-      <c r="H143" s="125"/>
-      <c r="I143" s="124"/>
-      <c r="J143" s="125"/>
+      <c r="B143" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C143" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D143" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E143" t="n" s="148">
+        <v>3.04</v>
+      </c>
+      <c r="F143" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G143" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H143" t="n" s="151">
+        <v>228.25</v>
+      </c>
+      <c r="I143" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J143" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="124"/>
-      <c r="C144" s="124"/>
-      <c r="D144" s="124"/>
-      <c r="E144" s="124"/>
-      <c r="F144" s="124"/>
-      <c r="G144" s="125"/>
-      <c r="H144" s="125"/>
-      <c r="I144" s="124"/>
-      <c r="J144" s="125"/>
+      <c r="B144" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D144" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E144" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="F144" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G144" t="n" s="151">
+        <v>83.0</v>
+      </c>
+      <c r="H144" t="n" s="151">
+        <v>82.5</v>
+      </c>
+      <c r="I144" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J144" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B145" s="124"/>
-      <c r="C145" s="124"/>
-      <c r="D145" s="124"/>
-      <c r="E145" s="124"/>
-      <c r="F145" s="124"/>
-      <c r="G145" s="125"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="124"/>
-      <c r="J145" s="125"/>
+      <c r="B145" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C145" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D145" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E145" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F145" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G145" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H145" t="n" s="151">
+        <v>37.4</v>
+      </c>
+      <c r="I145" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J145" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B146" s="124"/>
-      <c r="C146" s="124"/>
-      <c r="D146" s="124"/>
-      <c r="E146" s="124"/>
-      <c r="F146" s="124"/>
-      <c r="G146" s="125"/>
-      <c r="H146" s="125"/>
-      <c r="I146" s="124"/>
-      <c r="J146" s="125"/>
+      <c r="B146" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C146" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D146" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E146" t="n" s="148">
+        <v>1.66</v>
+      </c>
+      <c r="F146" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G146" t="n" s="151">
+        <v>4625.0</v>
+      </c>
+      <c r="H146" t="n" s="151">
+        <v>9249.35</v>
+      </c>
+      <c r="I146" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J146" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B147" s="124"/>
-      <c r="C147" s="124"/>
-      <c r="D147" s="124"/>
-      <c r="E147" s="124"/>
-      <c r="F147" s="124"/>
-      <c r="G147" s="125"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="124"/>
-      <c r="J147" s="125"/>
+      <c r="B147" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C147" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D147" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E147" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F147" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G147" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H147" t="n" s="151">
+        <v>30.25</v>
+      </c>
+      <c r="I147" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J147" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B148" s="124"/>
-      <c r="C148" s="124"/>
-      <c r="D148" s="124"/>
-      <c r="E148" s="124"/>
-      <c r="F148" s="124"/>
-      <c r="G148" s="125"/>
-      <c r="H148" s="125"/>
-      <c r="I148" s="124"/>
-      <c r="J148" s="125"/>
+      <c r="B148" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D148" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E148" t="n" s="148">
+        <v>1.89</v>
+      </c>
+      <c r="F148" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G148" t="n" s="151">
+        <v>4267.0</v>
+      </c>
+      <c r="H148" t="n" s="151">
+        <v>12800.15</v>
+      </c>
+      <c r="I148" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J148" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B149" s="124"/>
-      <c r="C149" s="124"/>
-      <c r="D149" s="124"/>
-      <c r="E149" s="124"/>
-      <c r="F149" s="124"/>
-      <c r="G149" s="125"/>
-      <c r="H149" s="125"/>
-      <c r="I149" s="124"/>
-      <c r="J149" s="125"/>
+      <c r="B149" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D149" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E149" t="n" s="148">
+        <v>2.02</v>
+      </c>
+      <c r="F149" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G149" t="n" s="151">
+        <v>4102.0</v>
+      </c>
+      <c r="H149" t="n" s="151">
+        <v>12306.8</v>
+      </c>
+      <c r="I149" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J149" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B150" s="124"/>
-      <c r="C150" s="124"/>
-      <c r="D150" s="124"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="124"/>
-      <c r="G150" s="125"/>
-      <c r="H150" s="125"/>
-      <c r="I150" s="124"/>
-      <c r="J150" s="125"/>
+      <c r="B150" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D150" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E150" t="n" s="148">
+        <v>1.84</v>
+      </c>
+      <c r="F150" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G150" t="n" s="151">
+        <v>65.0</v>
+      </c>
+      <c r="H150" t="n" s="151">
+        <v>130.35</v>
+      </c>
+      <c r="I150" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J150" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B151" s="124"/>
-      <c r="C151" s="124"/>
-      <c r="D151" s="124"/>
-      <c r="E151" s="124"/>
-      <c r="F151" s="124"/>
-      <c r="G151" s="125"/>
-      <c r="H151" s="125"/>
-      <c r="I151" s="124"/>
-      <c r="J151" s="125"/>
+      <c r="B151" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D151" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E151" t="n" s="148">
+        <v>3.07</v>
+      </c>
+      <c r="F151" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G151" t="n" s="151">
+        <v>61.0</v>
+      </c>
+      <c r="H151" t="n" s="151">
+        <v>183.15</v>
+      </c>
+      <c r="I151" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J151" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B152" s="124"/>
-      <c r="C152" s="124"/>
-      <c r="D152" s="124"/>
-      <c r="E152" s="124"/>
-      <c r="F152" s="124"/>
-      <c r="G152" s="125"/>
-      <c r="H152" s="125"/>
-      <c r="I152" s="124"/>
-      <c r="J152" s="125"/>
+      <c r="B152" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C152" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D152" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E152" t="n" s="148">
+        <v>2.78</v>
+      </c>
+      <c r="F152" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G152" t="n" s="151">
+        <v>6358.0</v>
+      </c>
+      <c r="H152" t="n" s="151">
+        <v>12716.55</v>
+      </c>
+      <c r="I152" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J152" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B153" s="124"/>
-      <c r="C153" s="124"/>
-      <c r="D153" s="124"/>
-      <c r="E153" s="124"/>
-      <c r="F153" s="124"/>
-      <c r="G153" s="125"/>
-      <c r="H153" s="125"/>
-      <c r="I153" s="124"/>
-      <c r="J153" s="125"/>
+      <c r="B153" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C153" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D153" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E153" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F153" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G153" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H153" t="n" s="151">
+        <v>7.15</v>
+      </c>
+      <c r="I153" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J153" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B154" s="124"/>
-      <c r="C154" s="124"/>
-      <c r="D154" s="124"/>
-      <c r="E154" s="124"/>
-      <c r="F154" s="124"/>
-      <c r="G154" s="125"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="124"/>
-      <c r="J154" s="125"/>
+      <c r="B154" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C154" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D154" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E154" t="n" s="148">
+        <v>3.58</v>
+      </c>
+      <c r="F154" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G154" t="n" s="151">
+        <v>58.0</v>
+      </c>
+      <c r="H154" t="n" s="151">
+        <v>174.35</v>
+      </c>
+      <c r="I154" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J154" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B155" s="124"/>
-      <c r="C155" s="124"/>
-      <c r="D155" s="124"/>
-      <c r="E155" s="124"/>
-      <c r="F155" s="124"/>
-      <c r="G155" s="125"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="124"/>
-      <c r="J155" s="125"/>
+      <c r="B155" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D155" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E155" t="n" s="148">
+        <v>1.13</v>
+      </c>
+      <c r="F155" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G155" t="n" s="151">
+        <v>64.0</v>
+      </c>
+      <c r="H155" t="n" s="151">
+        <v>64.35</v>
+      </c>
+      <c r="I155" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J155" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B156" s="124"/>
-      <c r="C156" s="124"/>
-      <c r="D156" s="124"/>
-      <c r="E156" s="124"/>
-      <c r="F156" s="124"/>
-      <c r="G156" s="125"/>
-      <c r="H156" s="125"/>
-      <c r="I156" s="124"/>
-      <c r="J156" s="125"/>
+      <c r="B156" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="C156" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D156" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E156" t="n" s="148">
+        <v>4.69</v>
+      </c>
+      <c r="F156" t="n" s="150">
+        <v>3.8</v>
+      </c>
+      <c r="G156" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H156" t="n" s="151">
+        <v>167.75</v>
+      </c>
+      <c r="I156" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J156" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B157" s="124"/>
-      <c r="C157" s="124"/>
-      <c r="D157" s="124"/>
-      <c r="E157" s="124"/>
-      <c r="F157" s="124"/>
-      <c r="G157" s="125"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="124"/>
-      <c r="J157" s="125"/>
+      <c r="B157" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C157" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D157" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E157" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F157" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G157" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H157" t="n" s="151">
+        <v>2.2</v>
+      </c>
+      <c r="I157" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J157" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B158" s="124"/>
-      <c r="C158" s="124"/>
-      <c r="D158" s="124"/>
-      <c r="E158" s="124"/>
-      <c r="F158" s="124"/>
-      <c r="G158" s="125"/>
-      <c r="H158" s="125"/>
-      <c r="I158" s="124"/>
-      <c r="J158" s="125"/>
+      <c r="B158" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C158" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D158" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E158" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F158" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G158" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H158" t="n" s="151">
+        <v>2.75</v>
+      </c>
+      <c r="I158" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J158" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B159" s="124"/>
-      <c r="C159" s="124"/>
-      <c r="D159" s="124"/>
-      <c r="E159" s="124"/>
-      <c r="F159" s="124"/>
-      <c r="G159" s="125"/>
-      <c r="H159" s="125"/>
-      <c r="I159" s="124"/>
-      <c r="J159" s="125"/>
+      <c r="B159" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C159" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D159" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E159" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F159" t="n" s="150">
+        <v>1.3</v>
+      </c>
+      <c r="G159" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H159" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I159" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J159" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B160" s="124"/>
-      <c r="C160" s="124"/>
-      <c r="D160" s="124"/>
-      <c r="E160" s="124"/>
-      <c r="F160" s="124"/>
-      <c r="G160" s="125"/>
-      <c r="H160" s="125"/>
-      <c r="I160" s="124"/>
-      <c r="J160" s="125"/>
+      <c r="B160" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C160" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D160" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E160" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F160" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G160" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H160" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I160" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J160" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B161" s="124"/>
-      <c r="C161" s="124"/>
-      <c r="D161" s="124"/>
-      <c r="E161" s="124"/>
-      <c r="F161" s="124"/>
-      <c r="G161" s="125"/>
-      <c r="H161" s="125"/>
-      <c r="I161" s="124"/>
-      <c r="J161" s="125"/>
+      <c r="B161" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C161" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D161" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E161" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F161" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G161" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H161" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I161" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J161" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B162" s="124"/>
-      <c r="C162" s="124"/>
-      <c r="D162" s="124"/>
-      <c r="E162" s="124"/>
-      <c r="F162" s="124"/>
-      <c r="G162" s="125"/>
-      <c r="H162" s="125"/>
-      <c r="I162" s="124"/>
-      <c r="J162" s="125"/>
+      <c r="B162" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C162" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D162" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E162" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F162" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G162" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H162" t="n" s="151">
+        <v>0.55</v>
+      </c>
+      <c r="I162" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J162" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B163" s="124"/>
-      <c r="C163" s="124"/>
-      <c r="D163" s="124"/>
-      <c r="E163" s="124"/>
-      <c r="F163" s="124"/>
-      <c r="G163" s="125"/>
-      <c r="H163" s="125"/>
-      <c r="I163" s="124"/>
-      <c r="J163" s="125"/>
+      <c r="B163" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C163" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D163" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E163" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F163" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G163" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H163" t="n" s="151">
+        <v>2.2</v>
+      </c>
+      <c r="I163" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J163" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B164" s="124"/>
-      <c r="C164" s="124"/>
-      <c r="D164" s="124"/>
-      <c r="E164" s="124"/>
-      <c r="F164" s="124"/>
-      <c r="G164" s="125"/>
-      <c r="H164" s="125"/>
-      <c r="I164" s="124"/>
-      <c r="J164" s="125"/>
+      <c r="B164" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C164" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D164" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E164" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F164" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G164" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H164" t="n" s="151">
+        <v>9.9</v>
+      </c>
+      <c r="I164" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J164" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B165" s="124"/>
-      <c r="C165" s="124"/>
-      <c r="D165" s="124"/>
-      <c r="E165" s="124"/>
-      <c r="F165" s="124"/>
-      <c r="G165" s="125"/>
-      <c r="H165" s="125"/>
-      <c r="I165" s="124"/>
-      <c r="J165" s="125"/>
+      <c r="B165" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C165" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D165" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E165" t="n" s="148">
+        <v>3.18</v>
+      </c>
+      <c r="F165" t="n" s="150">
+        <v>1.2</v>
+      </c>
+      <c r="G165" t="n" s="151">
+        <v>6067.0</v>
+      </c>
+      <c r="H165" t="n" s="151">
+        <v>12133.0</v>
+      </c>
+      <c r="I165" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J165" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B166" s="124"/>
-      <c r="C166" s="124"/>
-      <c r="D166" s="124"/>
-      <c r="E166" s="124"/>
-      <c r="F166" s="124"/>
-      <c r="G166" s="125"/>
-      <c r="H166" s="125"/>
-      <c r="I166" s="124"/>
-      <c r="J166" s="125"/>
+      <c r="B166" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C166" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D166" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E166" t="n" s="148">
+        <v>2.78</v>
+      </c>
+      <c r="F166" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G166" t="n" s="151">
+        <v>66.0</v>
+      </c>
+      <c r="H166" t="n" s="151">
+        <v>132.0</v>
+      </c>
+      <c r="I166" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J166" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B167" s="124"/>
-      <c r="C167" s="124"/>
-      <c r="D167" s="124"/>
-      <c r="E167" s="124"/>
-      <c r="F167" s="124"/>
-      <c r="G167" s="125"/>
-      <c r="H167" s="125"/>
-      <c r="I167" s="124"/>
-      <c r="J167" s="125"/>
+      <c r="B167" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C167" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D167" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E167" t="n" s="148">
+        <v>1.15</v>
+      </c>
+      <c r="F167" t="n" s="150">
+        <v>1.4</v>
+      </c>
+      <c r="G167" t="n" s="151">
+        <v>86.0</v>
+      </c>
+      <c r="H167" t="n" s="151">
+        <v>85.8</v>
+      </c>
+      <c r="I167" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J167" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B168" s="124"/>
-      <c r="C168" s="124"/>
-      <c r="D168" s="124"/>
-      <c r="E168" s="124"/>
-      <c r="F168" s="124"/>
-      <c r="G168" s="125"/>
-      <c r="H168" s="125"/>
-      <c r="I168" s="124"/>
-      <c r="J168" s="125"/>
+      <c r="B168" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C168" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D168" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E168" t="n" s="148">
+        <v>2.98</v>
+      </c>
+      <c r="F168" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G168" t="n" s="151">
+        <v>65.0</v>
+      </c>
+      <c r="H168" t="n" s="151">
+        <v>195.25</v>
+      </c>
+      <c r="I168" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J168" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B169" s="124"/>
-      <c r="C169" s="124"/>
-      <c r="D169" s="124"/>
-      <c r="E169" s="124"/>
-      <c r="F169" s="124"/>
-      <c r="G169" s="125"/>
-      <c r="H169" s="125"/>
-      <c r="I169" s="124"/>
-      <c r="J169" s="125"/>
+      <c r="B169" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C169" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D169" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E169" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F169" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G169" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H169" t="n" s="151">
+        <v>31.35</v>
+      </c>
+      <c r="I169" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J169" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B170" s="124"/>
-      <c r="C170" s="124"/>
-      <c r="D170" s="124"/>
-      <c r="E170" s="124"/>
-      <c r="F170" s="124"/>
-      <c r="G170" s="125"/>
-      <c r="H170" s="125"/>
-      <c r="I170" s="124"/>
-      <c r="J170" s="125"/>
+      <c r="B170" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C170" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D170" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E170" t="n" s="148">
+        <v>0.98</v>
+      </c>
+      <c r="F170" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G170" t="n" s="151">
+        <v>91.0</v>
+      </c>
+      <c r="H170" t="n" s="151">
+        <v>91.3</v>
+      </c>
+      <c r="I170" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J170" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B171" s="124"/>
-      <c r="C171" s="124"/>
-      <c r="D171" s="124"/>
-      <c r="E171" s="124"/>
-      <c r="F171" s="124"/>
-      <c r="G171" s="125"/>
-      <c r="H171" s="125"/>
-      <c r="I171" s="124"/>
-      <c r="J171" s="125"/>
+      <c r="B171" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C171" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D171" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E171" t="n" s="148">
+        <v>2.92</v>
+      </c>
+      <c r="F171" t="n" s="150">
+        <v>1.4</v>
+      </c>
+      <c r="G171" t="n" s="151">
+        <v>72.0</v>
+      </c>
+      <c r="H171" t="n" s="151">
+        <v>217.25</v>
+      </c>
+      <c r="I171" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J171" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B172" s="124"/>
-      <c r="C172" s="124"/>
-      <c r="D172" s="124"/>
-      <c r="E172" s="124"/>
-      <c r="F172" s="124"/>
-      <c r="G172" s="125"/>
-      <c r="H172" s="125"/>
-      <c r="I172" s="124"/>
-      <c r="J172" s="125"/>
+      <c r="B172" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C172" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D172" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E172" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F172" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G172" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H172" t="n" s="151">
+        <v>39.6</v>
+      </c>
+      <c r="I172" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J172" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B173" s="124"/>
-      <c r="C173" s="124"/>
-      <c r="D173" s="124"/>
-      <c r="E173" s="124"/>
-      <c r="F173" s="124"/>
-      <c r="G173" s="125"/>
-      <c r="H173" s="125"/>
-      <c r="I173" s="124"/>
-      <c r="J173" s="125"/>
+      <c r="B173" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C173" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D173" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E173" t="n" s="148">
+        <v>0.84</v>
+      </c>
+      <c r="F173" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G173" t="n" s="151">
+        <v>84.0</v>
+      </c>
+      <c r="H173" t="n" s="151">
+        <v>83.6</v>
+      </c>
+      <c r="I173" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J173" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B174" s="124"/>
-      <c r="C174" s="124"/>
-      <c r="D174" s="124"/>
-      <c r="E174" s="124"/>
-      <c r="F174" s="124"/>
-      <c r="G174" s="125"/>
-      <c r="H174" s="125"/>
-      <c r="I174" s="124"/>
-      <c r="J174" s="125"/>
+      <c r="B174" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C174" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D174" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E174" t="n" s="148">
+        <v>3.97</v>
+      </c>
+      <c r="F174" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G174" t="n" s="151">
+        <v>741.0</v>
+      </c>
+      <c r="H174" t="n" s="151">
+        <v>2962.3</v>
+      </c>
+      <c r="I174" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J174" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B175" s="124"/>
-      <c r="C175" s="124"/>
-      <c r="D175" s="124"/>
-      <c r="E175" s="124"/>
-      <c r="F175" s="124"/>
-      <c r="G175" s="125"/>
-      <c r="H175" s="125"/>
-      <c r="I175" s="124"/>
-      <c r="J175" s="125"/>
+      <c r="B175" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C175" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D175" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E175" t="n" s="148">
+        <v>2.16</v>
+      </c>
+      <c r="F175" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G175" t="n" s="151">
+        <v>62.0</v>
+      </c>
+      <c r="H175" t="n" s="151">
+        <v>123.75</v>
+      </c>
+      <c r="I175" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J175" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B176" s="124"/>
-      <c r="C176" s="124"/>
-      <c r="D176" s="124"/>
-      <c r="E176" s="124"/>
-      <c r="F176" s="124"/>
-      <c r="G176" s="125"/>
-      <c r="H176" s="125"/>
-      <c r="I176" s="124"/>
-      <c r="J176" s="125"/>
+      <c r="B176" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C176" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D176" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E176" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F176" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G176" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H176" t="n" s="151">
+        <v>12.65</v>
+      </c>
+      <c r="I176" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J176" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B177" s="124"/>
-      <c r="C177" s="124"/>
-      <c r="D177" s="124"/>
-      <c r="E177" s="124"/>
-      <c r="F177" s="124"/>
-      <c r="G177" s="125"/>
-      <c r="H177" s="125"/>
-      <c r="I177" s="124"/>
-      <c r="J177" s="125"/>
+      <c r="B177" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C177" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D177" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E177" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F177" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G177" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H177" t="n" s="151">
+        <v>5.5</v>
+      </c>
+      <c r="I177" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J177" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B178" s="124"/>
-      <c r="C178" s="124"/>
-      <c r="D178" s="124"/>
-      <c r="E178" s="124"/>
-      <c r="F178" s="124"/>
-      <c r="G178" s="125"/>
-      <c r="H178" s="125"/>
-      <c r="I178" s="124"/>
-      <c r="J178" s="125"/>
+      <c r="B178" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C178" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D178" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E178" t="n" s="148">
+        <v>2.23</v>
+      </c>
+      <c r="F178" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G178" t="n" s="151">
+        <v>5840.0</v>
+      </c>
+      <c r="H178" t="n" s="151">
+        <v>11679.8</v>
+      </c>
+      <c r="I178" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J178" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B179" s="124"/>
-      <c r="C179" s="124"/>
-      <c r="D179" s="124"/>
-      <c r="E179" s="124"/>
-      <c r="F179" s="124"/>
-      <c r="G179" s="125"/>
-      <c r="H179" s="125"/>
-      <c r="I179" s="124"/>
-      <c r="J179" s="125"/>
+      <c r="B179" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C179" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D179" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E179" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F179" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G179" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H179" t="n" s="151">
+        <v>5.5</v>
+      </c>
+      <c r="I179" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J179" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B180" s="124"/>
-      <c r="C180" s="124"/>
-      <c r="D180" s="124"/>
-      <c r="E180" s="124"/>
-      <c r="F180" s="124"/>
-      <c r="G180" s="125"/>
-      <c r="H180" s="125"/>
-      <c r="I180" s="124"/>
-      <c r="J180" s="125"/>
+      <c r="B180" t="s" s="148">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D180" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E180" t="n" s="148">
+        <v>3.93</v>
+      </c>
+      <c r="F180" t="n" s="150">
+        <v>2.7</v>
+      </c>
+      <c r="G180" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H180" t="n" s="151">
+        <v>113.3</v>
+      </c>
+      <c r="I180" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J180" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B181" s="124"/>
-      <c r="C181" s="124"/>
-      <c r="D181" s="124"/>
-      <c r="E181" s="124"/>
-      <c r="F181" s="124"/>
-      <c r="G181" s="125"/>
-      <c r="H181" s="125"/>
-      <c r="I181" s="124"/>
-      <c r="J181" s="125"/>
+      <c r="B181" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C181" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D181" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E181" t="n" s="148">
+        <v>3.13</v>
+      </c>
+      <c r="F181" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G181" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H181" t="n" s="151">
+        <v>112.75</v>
+      </c>
+      <c r="I181" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J181" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B182" s="124"/>
-      <c r="C182" s="124"/>
-      <c r="D182" s="124"/>
-      <c r="E182" s="124"/>
-      <c r="F182" s="124"/>
-      <c r="G182" s="125"/>
-      <c r="H182" s="125"/>
-      <c r="I182" s="124"/>
-      <c r="J182" s="125"/>
+      <c r="B182" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C182" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D182" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E182" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F182" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G182" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H182" t="n" s="151">
+        <v>0.55</v>
+      </c>
+      <c r="I182" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J182" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B183" s="124"/>
-      <c r="C183" s="124"/>
-      <c r="D183" s="124"/>
-      <c r="E183" s="124"/>
-      <c r="F183" s="124"/>
-      <c r="G183" s="125"/>
-      <c r="H183" s="125"/>
-      <c r="I183" s="124"/>
-      <c r="J183" s="125"/>
+      <c r="B183" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C183" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D183" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E183" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F183" t="n" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="G183" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H183" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I183" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J183" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B184" s="124"/>
-      <c r="C184" s="124"/>
-      <c r="D184" s="124"/>
-      <c r="E184" s="124"/>
-      <c r="F184" s="124"/>
-      <c r="G184" s="125"/>
-      <c r="H184" s="125"/>
-      <c r="I184" s="124"/>
-      <c r="J184" s="125"/>
+      <c r="B184" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C184" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D184" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E184" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F184" t="n" s="150">
+        <v>2.8</v>
+      </c>
+      <c r="G184" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H184" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I184" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J184" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B185" s="124"/>
-      <c r="C185" s="124"/>
-      <c r="D185" s="124"/>
-      <c r="E185" s="124"/>
-      <c r="F185" s="124"/>
-      <c r="G185" s="125"/>
-      <c r="H185" s="125"/>
-      <c r="I185" s="124"/>
-      <c r="J185" s="125"/>
+      <c r="B185" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C185" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D185" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E185" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F185" t="n" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="G185" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H185" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="I185" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J185" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B186" s="124"/>
-      <c r="C186" s="124"/>
-      <c r="D186" s="124"/>
-      <c r="E186" s="124"/>
-      <c r="F186" s="124"/>
-      <c r="G186" s="125"/>
-      <c r="H186" s="125"/>
-      <c r="I186" s="124"/>
-      <c r="J186" s="125"/>
+      <c r="B186" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C186" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D186" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E186" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F186" t="n" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="G186" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H186" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I186" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J186" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B187" s="124"/>
-      <c r="C187" s="124"/>
-      <c r="D187" s="124"/>
-      <c r="E187" s="124"/>
-      <c r="F187" s="124"/>
-      <c r="G187" s="125"/>
-      <c r="H187" s="125"/>
-      <c r="I187" s="124"/>
-      <c r="J187" s="125"/>
+      <c r="B187" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C187" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D187" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E187" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F187" t="n" s="150">
+        <v>4.3</v>
+      </c>
+      <c r="G187" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H187" t="n" s="151">
+        <v>1.65</v>
+      </c>
+      <c r="I187" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J187" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B188" s="124"/>
-      <c r="C188" s="124"/>
-      <c r="D188" s="124"/>
-      <c r="E188" s="124"/>
-      <c r="F188" s="124"/>
-      <c r="G188" s="125"/>
-      <c r="H188" s="125"/>
-      <c r="I188" s="124"/>
-      <c r="J188" s="125"/>
+      <c r="B188" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C188" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D188" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E188" t="n" s="148">
+        <v>5.56</v>
+      </c>
+      <c r="F188" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G188" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H188" t="n" s="151">
+        <v>57.2</v>
+      </c>
+      <c r="I188" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J188" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B189" s="124"/>
-      <c r="C189" s="124"/>
-      <c r="D189" s="124"/>
-      <c r="E189" s="124"/>
-      <c r="F189" s="124"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="125"/>
-      <c r="I189" s="124"/>
-      <c r="J189" s="125"/>
+      <c r="B189" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C189" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D189" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E189" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F189" t="n" s="150">
+        <v>1.6</v>
+      </c>
+      <c r="G189" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H189" t="n" s="151">
+        <v>6.6</v>
+      </c>
+      <c r="I189" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J189" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B190" s="124"/>
-      <c r="C190" s="124"/>
-      <c r="D190" s="124"/>
-      <c r="E190" s="124"/>
-      <c r="F190" s="124"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="125"/>
-      <c r="I190" s="124"/>
-      <c r="J190" s="125"/>
+      <c r="B190" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C190" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D190" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E190" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F190" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G190" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H190" t="n" s="151">
+        <v>3.3</v>
+      </c>
+      <c r="I190" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J190" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B191" s="124"/>
-      <c r="C191" s="124"/>
-      <c r="D191" s="124"/>
-      <c r="E191" s="124"/>
-      <c r="F191" s="124"/>
-      <c r="G191" s="125"/>
-      <c r="H191" s="125"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="125"/>
+      <c r="B191" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C191" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D191" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E191" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F191" t="n" s="150">
+        <v>1.4</v>
+      </c>
+      <c r="G191" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H191" t="n" s="151">
+        <v>7.15</v>
+      </c>
+      <c r="I191" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J191" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B192" s="124"/>
-      <c r="C192" s="124"/>
-      <c r="D192" s="124"/>
-      <c r="E192" s="124"/>
-      <c r="F192" s="124"/>
-      <c r="G192" s="125"/>
-      <c r="H192" s="125"/>
-      <c r="I192" s="124"/>
-      <c r="J192" s="125"/>
+      <c r="B192" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C192" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D192" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E192" t="n" s="148">
+        <v>3.34</v>
+      </c>
+      <c r="F192" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G192" t="n" s="151">
+        <v>12962.0</v>
+      </c>
+      <c r="H192" t="n" s="151">
+        <v>12961.85</v>
+      </c>
+      <c r="I192" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J192" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B193" s="124"/>
-      <c r="C193" s="124"/>
-      <c r="D193" s="124"/>
-      <c r="E193" s="124"/>
-      <c r="F193" s="124"/>
-      <c r="G193" s="125"/>
-      <c r="H193" s="125"/>
-      <c r="I193" s="124"/>
-      <c r="J193" s="125"/>
+      <c r="B193" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C193" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D193" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E193" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F193" t="n" s="150">
+        <v>1.9</v>
+      </c>
+      <c r="G193" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H193" t="n" s="151">
+        <v>3.3</v>
+      </c>
+      <c r="I193" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J193" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B194" s="124"/>
-      <c r="C194" s="124"/>
-      <c r="D194" s="124"/>
-      <c r="E194" s="124"/>
-      <c r="F194" s="124"/>
-      <c r="G194" s="125"/>
-      <c r="H194" s="125"/>
-      <c r="I194" s="124"/>
-      <c r="J194" s="125"/>
+      <c r="B194" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C194" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D194" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E194" t="n" s="148">
+        <v>4.77</v>
+      </c>
+      <c r="F194" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G194" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H194" t="n" s="151">
+        <v>117.15</v>
+      </c>
+      <c r="I194" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J194" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B195" s="124"/>
-      <c r="C195" s="124"/>
-      <c r="D195" s="124"/>
-      <c r="E195" s="124"/>
-      <c r="F195" s="124"/>
-      <c r="G195" s="125"/>
-      <c r="H195" s="125"/>
-      <c r="I195" s="124"/>
-      <c r="J195" s="125"/>
+      <c r="B195" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C195" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D195" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E195" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="F195" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G195" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H195" t="n" s="151">
+        <v>117.15</v>
+      </c>
+      <c r="I195" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J195" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B196" s="124"/>
-      <c r="C196" s="124"/>
-      <c r="D196" s="124"/>
-      <c r="E196" s="124"/>
-      <c r="F196" s="124"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="124"/>
-      <c r="J196" s="125"/>
+      <c r="B196" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C196" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D196" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E196" t="n" s="148">
+        <v>2.09</v>
+      </c>
+      <c r="F196" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G196" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H196" t="n" s="151">
+        <v>59.4</v>
+      </c>
+      <c r="I196" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J196" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B197" s="124"/>
-      <c r="C197" s="124"/>
-      <c r="D197" s="124"/>
-      <c r="E197" s="124"/>
-      <c r="F197" s="124"/>
-      <c r="G197" s="125"/>
-      <c r="H197" s="125"/>
-      <c r="I197" s="124"/>
-      <c r="J197" s="125"/>
+      <c r="B197" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C197" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D197" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E197" t="n" s="148">
+        <v>3.93</v>
+      </c>
+      <c r="F197" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G197" t="n" s="151">
+        <v>520.0</v>
+      </c>
+      <c r="H197" t="n" s="151">
+        <v>1040.05</v>
+      </c>
+      <c r="I197" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J197" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B198" s="124"/>
-      <c r="C198" s="124"/>
-      <c r="D198" s="124"/>
-      <c r="E198" s="124"/>
-      <c r="F198" s="124"/>
-      <c r="G198" s="125"/>
-      <c r="H198" s="125"/>
-      <c r="I198" s="124"/>
-      <c r="J198" s="125"/>
+      <c r="B198" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C198" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D198" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E198" t="n" s="148">
+        <v>4.17</v>
+      </c>
+      <c r="F198" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G198" t="n" s="151">
+        <v>60.0</v>
+      </c>
+      <c r="H198" t="n" s="151">
+        <v>179.3</v>
+      </c>
+      <c r="I198" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J198" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B199" s="124"/>
-      <c r="C199" s="124"/>
-      <c r="D199" s="124"/>
-      <c r="E199" s="124"/>
-      <c r="F199" s="124"/>
-      <c r="G199" s="125"/>
-      <c r="H199" s="125"/>
-      <c r="I199" s="124"/>
-      <c r="J199" s="125"/>
+      <c r="B199" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C199" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D199" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E199" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="F199" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G199" t="n" s="151">
+        <v>5657.0</v>
+      </c>
+      <c r="H199" t="n" s="151">
+        <v>11314.6</v>
+      </c>
+      <c r="I199" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J199" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B200" s="124"/>
-      <c r="C200" s="124"/>
-      <c r="D200" s="124"/>
-      <c r="E200" s="124"/>
-      <c r="F200" s="124"/>
-      <c r="G200" s="125"/>
-      <c r="H200" s="125"/>
-      <c r="I200" s="124"/>
-      <c r="J200" s="125"/>
+      <c r="B200" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C200" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D200" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E200" t="n" s="148">
+        <v>2.71</v>
+      </c>
+      <c r="F200" t="n" s="150">
+        <v>1.3</v>
+      </c>
+      <c r="G200" t="n" s="151">
+        <v>10856.0</v>
+      </c>
+      <c r="H200" t="n" s="151">
+        <v>21711.8</v>
+      </c>
+      <c r="I200" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J200" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B201" s="124"/>
-      <c r="C201" s="124"/>
-      <c r="D201" s="124"/>
-      <c r="E201" s="124"/>
-      <c r="F201" s="124"/>
-      <c r="G201" s="125"/>
-      <c r="H201" s="125"/>
-      <c r="I201" s="124"/>
-      <c r="J201" s="125"/>
+      <c r="B201" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C201" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D201" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E201" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F201" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G201" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H201" t="n" s="151">
+        <v>4.95</v>
+      </c>
+      <c r="I201" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J201" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B202" s="124"/>
-      <c r="C202" s="124"/>
-      <c r="D202" s="124"/>
-      <c r="E202" s="124"/>
-      <c r="F202" s="124"/>
-      <c r="G202" s="125"/>
-      <c r="H202" s="125"/>
-      <c r="I202" s="124"/>
-      <c r="J202" s="125"/>
+      <c r="B202" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C202" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D202" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E202" t="n" s="148">
+        <v>1.24</v>
+      </c>
+      <c r="F202" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G202" t="n" s="151">
+        <v>58.0</v>
+      </c>
+      <c r="H202" t="n" s="151">
+        <v>58.3</v>
+      </c>
+      <c r="I202" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J202" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B203" s="124"/>
-      <c r="C203" s="124"/>
-      <c r="D203" s="124"/>
-      <c r="E203" s="124"/>
-      <c r="F203" s="124"/>
-      <c r="G203" s="125"/>
-      <c r="H203" s="125"/>
-      <c r="I203" s="124"/>
-      <c r="J203" s="125"/>
+      <c r="B203" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C203" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D203" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E203" t="n" s="148">
+        <v>2.28</v>
+      </c>
+      <c r="F203" t="n" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="G203" t="n" s="151">
+        <v>30.0</v>
+      </c>
+      <c r="H203" t="n" s="151">
+        <v>60.5</v>
+      </c>
+      <c r="I203" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J203" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B204" s="124"/>
-      <c r="C204" s="124"/>
-      <c r="D204" s="124"/>
-      <c r="E204" s="124"/>
-      <c r="F204" s="124"/>
-      <c r="G204" s="125"/>
-      <c r="H204" s="125"/>
-      <c r="I204" s="124"/>
-      <c r="J204" s="125"/>
+      <c r="B204" t="s" s="148">
+        <v>44</v>
+      </c>
+      <c r="C204" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D204" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E204" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F204" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G204" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H204" t="n" s="151">
+        <v>3.85</v>
+      </c>
+      <c r="I204" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J204" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B205" s="124"/>
-      <c r="C205" s="124"/>
-      <c r="D205" s="124"/>
-      <c r="E205" s="124"/>
-      <c r="F205" s="124"/>
-      <c r="G205" s="125"/>
-      <c r="H205" s="125"/>
-      <c r="I205" s="124"/>
-      <c r="J205" s="125"/>
+      <c r="B205" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C205" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="D205" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E205" t="n" s="148">
+        <v>2.82</v>
+      </c>
+      <c r="F205" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G205" t="n" s="151">
+        <v>3208.0</v>
+      </c>
+      <c r="H205" t="n" s="151">
+        <v>6416.3</v>
+      </c>
+      <c r="I205" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J205" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B206" s="124"/>
-      <c r="C206" s="124"/>
-      <c r="D206" s="124"/>
-      <c r="E206" s="124"/>
-      <c r="F206" s="124"/>
-      <c r="G206" s="125"/>
-      <c r="H206" s="125"/>
-      <c r="I206" s="124"/>
-      <c r="J206" s="125"/>
+      <c r="B206" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C206" t="s" s="148">
+        <v>30</v>
+      </c>
+      <c r="D206" t="n" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="E206" t="n" s="148">
+        <v>9.26</v>
+      </c>
+      <c r="F206" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G206" t="n" s="151">
+        <v>210.0</v>
+      </c>
+      <c r="H206" t="n" s="151">
+        <v>1047.75</v>
+      </c>
+      <c r="I206" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J206" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B207" s="124"/>
-      <c r="C207" s="124"/>
-      <c r="D207" s="124"/>
-      <c r="E207" s="124"/>
-      <c r="F207" s="124"/>
-      <c r="G207" s="125"/>
-      <c r="H207" s="125"/>
-      <c r="I207" s="124"/>
-      <c r="J207" s="125"/>
+      <c r="B207" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s" s="148">
+        <v>33</v>
+      </c>
+      <c r="D207" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E207" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F207" t="n" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="G207" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H207" t="n" s="151">
+        <v>1.1</v>
+      </c>
+      <c r="I207" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J207" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B208" s="124"/>
-      <c r="C208" s="124"/>
-      <c r="D208" s="124"/>
-      <c r="E208" s="124"/>
-      <c r="F208" s="124"/>
-      <c r="G208" s="125"/>
-      <c r="H208" s="125"/>
-      <c r="I208" s="124"/>
-      <c r="J208" s="125"/>
+      <c r="B208" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C208" t="s" s="148">
+        <v>36</v>
+      </c>
+      <c r="D208" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E208" t="n" s="148">
+        <v>2.78</v>
+      </c>
+      <c r="F208" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G208" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H208" t="n" s="151">
+        <v>55.55</v>
+      </c>
+      <c r="I208" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J208" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B209" s="124"/>
-      <c r="C209" s="124"/>
-      <c r="D209" s="124"/>
-      <c r="E209" s="124"/>
-      <c r="F209" s="124"/>
-      <c r="G209" s="125"/>
-      <c r="H209" s="125"/>
-      <c r="I209" s="124"/>
-      <c r="J209" s="125"/>
+      <c r="B209" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C209" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="D209" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E209" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F209" t="n" s="150">
+        <v>4.4</v>
+      </c>
+      <c r="G209" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H209" t="n" s="151">
+        <v>0.55</v>
+      </c>
+      <c r="I209" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J209" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B210" s="124"/>
-      <c r="C210" s="124"/>
-      <c r="D210" s="124"/>
-      <c r="E210" s="124"/>
-      <c r="F210" s="124"/>
-      <c r="G210" s="125"/>
-      <c r="H210" s="125"/>
-      <c r="I210" s="124"/>
-      <c r="J210" s="125"/>
+      <c r="B210" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s" s="148">
+        <v>42</v>
+      </c>
+      <c r="D210" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E210" t="n" s="148">
+        <v>9.1</v>
+      </c>
+      <c r="F210" t="n" s="150">
+        <v>3.3</v>
+      </c>
+      <c r="G210" t="n" s="151">
+        <v>56.0</v>
+      </c>
+      <c r="H210" t="n" s="151">
+        <v>56.1</v>
+      </c>
+      <c r="I210" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J210" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B211" s="124"/>
-      <c r="C211" s="124"/>
-      <c r="D211" s="124"/>
-      <c r="E211" s="124"/>
-      <c r="F211" s="124"/>
-      <c r="G211" s="125"/>
-      <c r="H211" s="125"/>
-      <c r="I211" s="124"/>
-      <c r="J211" s="125"/>
+      <c r="B211" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C211" t="s" s="148">
+        <v>45</v>
+      </c>
+      <c r="D211" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E211" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F211" t="n" s="150">
+        <v>2.6</v>
+      </c>
+      <c r="G211" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H211" t="n" s="151">
+        <v>3.3</v>
+      </c>
+      <c r="I211" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J211" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B212" s="124"/>
-      <c r="C212" s="124"/>
-      <c r="D212" s="124"/>
-      <c r="E212" s="124"/>
-      <c r="F212" s="124"/>
-      <c r="G212" s="125"/>
-      <c r="H212" s="125"/>
-      <c r="I212" s="124"/>
-      <c r="J212" s="125"/>
+      <c r="B212" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C212" t="s" s="148">
+        <v>48</v>
+      </c>
+      <c r="D212" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E212" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F212" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G212" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H212" t="n" s="151">
+        <v>3.85</v>
+      </c>
+      <c r="I212" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J212" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B213" s="124"/>
-      <c r="C213" s="124"/>
-      <c r="D213" s="124"/>
-      <c r="E213" s="124"/>
-      <c r="F213" s="124"/>
-      <c r="G213" s="125"/>
-      <c r="H213" s="125"/>
-      <c r="I213" s="124"/>
-      <c r="J213" s="125"/>
+      <c r="B213" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C213" t="s" s="148">
+        <v>50</v>
+      </c>
+      <c r="D213" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E213" t="n" s="148">
+        <v>3.85</v>
+      </c>
+      <c r="F213" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G213" t="n" s="151">
+        <v>61.0</v>
+      </c>
+      <c r="H213" t="n" s="151">
+        <v>61.05</v>
+      </c>
+      <c r="I213" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J213" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B214" s="124"/>
-      <c r="C214" s="124"/>
-      <c r="D214" s="124"/>
-      <c r="E214" s="124"/>
-      <c r="F214" s="124"/>
-      <c r="G214" s="125"/>
-      <c r="H214" s="125"/>
-      <c r="I214" s="124"/>
-      <c r="J214" s="125"/>
+      <c r="B214" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C214" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="D214" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E214" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F214" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G214" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H214" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I214" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J214" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B215" s="124"/>
-      <c r="C215" s="124"/>
-      <c r="D215" s="124"/>
-      <c r="E215" s="124"/>
-      <c r="F215" s="124"/>
-      <c r="G215" s="125"/>
-      <c r="H215" s="125"/>
-      <c r="I215" s="124"/>
-      <c r="J215" s="125"/>
+      <c r="B215" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C215" t="s" s="148">
+        <v>54</v>
+      </c>
+      <c r="D215" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E215" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F215" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G215" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H215" t="n" s="151">
+        <v>7.7</v>
+      </c>
+      <c r="I215" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J215" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B216" s="124"/>
-      <c r="C216" s="124"/>
-      <c r="D216" s="124"/>
-      <c r="E216" s="124"/>
-      <c r="F216" s="124"/>
-      <c r="G216" s="125"/>
-      <c r="H216" s="125"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="125"/>
+      <c r="B216" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C216" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="D216" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E216" t="n" s="148">
+        <v>1.67</v>
+      </c>
+      <c r="F216" t="n" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="G216" t="n" s="151">
+        <v>66.0</v>
+      </c>
+      <c r="H216" t="n" s="151">
+        <v>66.0</v>
+      </c>
+      <c r="I216" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J216" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B217" s="124"/>
-      <c r="C217" s="124"/>
-      <c r="D217" s="124"/>
-      <c r="E217" s="124"/>
-      <c r="F217" s="124"/>
-      <c r="G217" s="125"/>
-      <c r="H217" s="125"/>
-      <c r="I217" s="124"/>
-      <c r="J217" s="125"/>
+      <c r="B217" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C217" t="s" s="148">
+        <v>28</v>
+      </c>
+      <c r="D217" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E217" t="n" s="148">
+        <v>1.82</v>
+      </c>
+      <c r="F217" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G217" t="n" s="151">
+        <v>13102.0</v>
+      </c>
+      <c r="H217" t="n" s="151">
+        <v>13101.55</v>
+      </c>
+      <c r="I217" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J217" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B218" s="124"/>
-      <c r="C218" s="124"/>
-      <c r="D218" s="124"/>
-      <c r="E218" s="124"/>
-      <c r="F218" s="124"/>
-      <c r="G218" s="125"/>
-      <c r="H218" s="125"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="125"/>
+      <c r="B218" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C218" t="s" s="148">
+        <v>31</v>
+      </c>
+      <c r="D218" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E218" t="n" s="148">
+        <v>3.9</v>
+      </c>
+      <c r="F218" t="n" s="150">
+        <v>2.8</v>
+      </c>
+      <c r="G218" t="n" s="151">
+        <v>41.0</v>
+      </c>
+      <c r="H218" t="n" s="151">
+        <v>121.55</v>
+      </c>
+      <c r="I218" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J218" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B219" s="124"/>
-      <c r="C219" s="124"/>
-      <c r="D219" s="124"/>
-      <c r="E219" s="124"/>
-      <c r="F219" s="124"/>
-      <c r="G219" s="125"/>
-      <c r="H219" s="125"/>
-      <c r="I219" s="124"/>
-      <c r="J219" s="125"/>
+      <c r="B219" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C219" t="s" s="148">
+        <v>34</v>
+      </c>
+      <c r="D219" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E219" t="n" s="148">
+        <v>1.59</v>
+      </c>
+      <c r="F219" t="n" s="150">
+        <v>1.7</v>
+      </c>
+      <c r="G219" t="n" s="151">
+        <v>12.0</v>
+      </c>
+      <c r="H219" t="n" s="151">
+        <v>11.55</v>
+      </c>
+      <c r="I219" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J219" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B220" s="124"/>
-      <c r="C220" s="124"/>
-      <c r="D220" s="124"/>
-      <c r="E220" s="124"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="125"/>
-      <c r="H220" s="125"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="125"/>
+      <c r="B220" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C220" t="s" s="148">
+        <v>37</v>
+      </c>
+      <c r="D220" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E220" t="n" s="148">
+        <v>5.27</v>
+      </c>
+      <c r="F220" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G220" t="n" s="151">
+        <v>3237.0</v>
+      </c>
+      <c r="H220" t="n" s="151">
+        <v>12948.1</v>
+      </c>
+      <c r="I220" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J220" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B221" s="124"/>
-      <c r="C221" s="124"/>
-      <c r="D221" s="124"/>
-      <c r="E221" s="124"/>
-      <c r="F221" s="124"/>
-      <c r="G221" s="125"/>
-      <c r="H221" s="125"/>
-      <c r="I221" s="124"/>
-      <c r="J221" s="125"/>
+      <c r="B221" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C221" t="s" s="148">
+        <v>40</v>
+      </c>
+      <c r="D221" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="E221" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="F221" t="n" s="150">
+        <v>1.8</v>
+      </c>
+      <c r="G221" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H221" t="n" s="151">
+        <v>17.05</v>
+      </c>
+      <c r="I221" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J221" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B222" s="124"/>
-      <c r="C222" s="124"/>
-      <c r="D222" s="124"/>
-      <c r="E222" s="124"/>
-      <c r="F222" s="124"/>
-      <c r="G222" s="125"/>
-      <c r="H222" s="125"/>
-      <c r="I222" s="124"/>
-      <c r="J222" s="125"/>
+      <c r="B222" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C222" t="s" s="148">
+        <v>43</v>
+      </c>
+      <c r="D222" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E222" t="n" s="148">
+        <v>2.57</v>
+      </c>
+      <c r="F222" t="n" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="G222" t="n" s="151">
+        <v>60.0</v>
+      </c>
+      <c r="H222" t="n" s="151">
+        <v>119.35</v>
+      </c>
+      <c r="I222" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J222" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B223" s="124"/>
-      <c r="C223" s="124"/>
-      <c r="D223" s="124"/>
-      <c r="E223" s="124"/>
-      <c r="F223" s="124"/>
-      <c r="G223" s="125"/>
-      <c r="H223" s="125"/>
-      <c r="I223" s="124"/>
-      <c r="J223" s="125"/>
+      <c r="B223" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C223" t="s" s="148">
+        <v>46</v>
+      </c>
+      <c r="D223" t="n" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="E223" t="n" s="148">
+        <v>3.53</v>
+      </c>
+      <c r="F223" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G223" t="n" s="151">
+        <v>3154.0</v>
+      </c>
+      <c r="H223" t="n" s="151">
+        <v>9460.55</v>
+      </c>
+      <c r="I223" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J223" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B224" s="124"/>
-      <c r="C224" s="124"/>
-      <c r="D224" s="124"/>
-      <c r="E224" s="124"/>
-      <c r="F224" s="124"/>
-      <c r="G224" s="125"/>
-      <c r="H224" s="125"/>
-      <c r="I224" s="124"/>
-      <c r="J224" s="125"/>
+      <c r="B224" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C224" t="s" s="148">
+        <v>49</v>
+      </c>
+      <c r="D224" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E224" t="n" s="148">
+        <v>4.55</v>
+      </c>
+      <c r="F224" t="n" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="G224" t="n" s="151">
+        <v>57.0</v>
+      </c>
+      <c r="H224" t="n" s="151">
+        <v>229.35</v>
+      </c>
+      <c r="I224" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J224" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B225" s="124"/>
-      <c r="C225" s="124"/>
-      <c r="D225" s="124"/>
-      <c r="E225" s="124"/>
-      <c r="F225" s="124"/>
-      <c r="G225" s="125"/>
-      <c r="H225" s="125"/>
-      <c r="I225" s="124"/>
-      <c r="J225" s="125"/>
+      <c r="B225" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C225" t="s" s="148">
+        <v>51</v>
+      </c>
+      <c r="D225" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E225" t="n" s="148">
+        <v>2.86</v>
+      </c>
+      <c r="F225" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G225" t="n" s="151">
+        <v>4327.0</v>
+      </c>
+      <c r="H225" t="n" s="151">
+        <v>8653.7</v>
+      </c>
+      <c r="I225" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J225" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B226" s="124"/>
-      <c r="C226" s="124"/>
-      <c r="D226" s="124"/>
-      <c r="E226" s="124"/>
-      <c r="F226" s="124"/>
-      <c r="G226" s="125"/>
-      <c r="H226" s="125"/>
-      <c r="I226" s="124"/>
-      <c r="J226" s="125"/>
+      <c r="B226" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C226" t="s" s="148">
+        <v>53</v>
+      </c>
+      <c r="D226" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E226" t="n" s="148">
+        <v>1.84</v>
+      </c>
+      <c r="F226" t="n" s="150">
+        <v>2.3</v>
+      </c>
+      <c r="G226" t="n" s="151">
+        <v>59.0</v>
+      </c>
+      <c r="H226" t="n" s="151">
+        <v>118.8</v>
+      </c>
+      <c r="I226" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J226" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B227" s="124"/>
-      <c r="C227" s="124"/>
-      <c r="D227" s="124"/>
-      <c r="E227" s="124"/>
-      <c r="F227" s="124"/>
-      <c r="G227" s="125"/>
-      <c r="H227" s="125"/>
-      <c r="I227" s="124"/>
-      <c r="J227" s="125"/>
+      <c r="B227" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C227" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="D227" t="n" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="E227" t="n" s="148">
+        <v>3.71</v>
+      </c>
+      <c r="F227" t="n" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="G227" t="n" s="151">
+        <v>3269.0</v>
+      </c>
+      <c r="H227" t="n" s="151">
+        <v>13077.9</v>
+      </c>
+      <c r="I227" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J227" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B228" s="124"/>
-      <c r="C228" s="124"/>
-      <c r="D228" s="124"/>
-      <c r="E228" s="124"/>
-      <c r="F228" s="124"/>
-      <c r="G228" s="125"/>
-      <c r="H228" s="125"/>
-      <c r="I228" s="124"/>
-      <c r="J228" s="125"/>
+      <c r="B228" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="C228" t="s" s="148">
+        <v>57</v>
+      </c>
+      <c r="D228" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="E228" t="n" s="148">
+        <v>2.41</v>
+      </c>
+      <c r="F228" t="n" s="150">
+        <v>2.2</v>
+      </c>
+      <c r="G228" t="n" s="151">
+        <v>6575.0</v>
+      </c>
+      <c r="H228" t="n" s="151">
+        <v>13150.5</v>
+      </c>
+      <c r="I228" t="n" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="J228" t="n" s="148">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
